--- a/POSAdmin/Ci Enny Newest/Cetak Barcode Batch 5.xlsx
+++ b/POSAdmin/Ci Enny Newest/Cetak Barcode Batch 5.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$745</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$744</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5245" uniqueCount="1655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5646" uniqueCount="1655">
   <si>
     <t>SPAREPART</t>
   </si>
@@ -4011,9 +4011,6 @@
     <t>BL FLEMMO 90/90-14</t>
   </si>
   <si>
-    <t>JT 29712</t>
-  </si>
-  <si>
     <t>jt8114-7</t>
   </si>
   <si>
@@ -4984,6 +4981,9 @@
   </si>
   <si>
     <t>KUNCI KONTAK BATMAN RXK</t>
+  </si>
+  <si>
+    <t>JT7516</t>
   </si>
 </sst>
 </file>
@@ -5155,14 +5155,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -5467,10 +5460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH745"/>
+  <dimension ref="A1:AH744"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E715" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G719" sqref="G719"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7616,7 +7609,7 @@
         <v>127</v>
       </c>
       <c r="C33" s="14">
-        <v>41465</v>
+        <v>41794</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>148</v>
@@ -11717,7 +11710,7 @@
         <v>281</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H94" s="13" t="s">
         <v>282</v>
@@ -11784,7 +11777,7 @@
         <v>283</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H95" s="13" t="s">
         <v>282</v>
@@ -11918,7 +11911,7 @@
         <v>287</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H97" s="13" t="s">
         <v>288</v>
@@ -11985,7 +11978,7 @@
         <v>290</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H98" s="13" t="s">
         <v>291</v>
@@ -12052,7 +12045,7 @@
         <v>293</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H99" s="13"/>
       <c r="I99" s="13"/>
@@ -12182,7 +12175,7 @@
         <v>296</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H101" s="13" t="s">
         <v>297</v>
@@ -12249,7 +12242,7 @@
         <v>299</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H102" s="13" t="s">
         <v>300</v>
@@ -12383,7 +12376,7 @@
         <v>304</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H104" s="13" t="s">
         <v>305</v>
@@ -16872,7 +16865,7 @@
         <v>432</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H171" s="13" t="s">
         <v>433</v>
@@ -16939,7 +16932,7 @@
         <v>436</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H172" s="13" t="s">
         <v>433</v>
@@ -17006,7 +16999,7 @@
         <v>438</v>
       </c>
       <c r="G173" s="13" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H173" s="13" t="s">
         <v>439</v>
@@ -17138,7 +17131,7 @@
         <v>443</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H175" s="13" t="s">
         <v>444</v>
@@ -17205,7 +17198,7 @@
         <v>446</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H176" s="13" t="s">
         <v>447</v>
@@ -17339,7 +17332,7 @@
         <v>450</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H178" s="13" t="s">
         <v>451</v>
@@ -17406,7 +17399,7 @@
         <v>452</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H179" s="13" t="s">
         <v>453</v>
@@ -17540,7 +17533,7 @@
         <v>456</v>
       </c>
       <c r="G181" s="13" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H181" s="13" t="s">
         <v>302</v>
@@ -17607,7 +17600,7 @@
         <v>458</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H182" s="13" t="s">
         <v>459</v>
@@ -17739,7 +17732,7 @@
         <v>463</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H184" s="13" t="s">
         <v>302</v>
@@ -17806,7 +17799,7 @@
         <v>466</v>
       </c>
       <c r="G185" s="13" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H185" s="13" t="s">
         <v>467</v>
@@ -17873,7 +17866,7 @@
         <v>469</v>
       </c>
       <c r="G186" s="13" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H186" s="13" t="s">
         <v>470</v>
@@ -17940,7 +17933,7 @@
         <v>472</v>
       </c>
       <c r="G187" s="13" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H187" s="13" t="s">
         <v>473</v>
@@ -18007,7 +18000,7 @@
         <v>474</v>
       </c>
       <c r="G188" s="13" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H188" s="13" t="s">
         <v>475</v>
@@ -18074,7 +18067,7 @@
         <v>476</v>
       </c>
       <c r="G189" s="13" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H189" s="13" t="s">
         <v>477</v>
@@ -18141,7 +18134,7 @@
         <v>478</v>
       </c>
       <c r="G190" s="13" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H190" s="13" t="s">
         <v>479</v>
@@ -18208,7 +18201,7 @@
         <v>481</v>
       </c>
       <c r="G191" s="13" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H191" s="13" t="s">
         <v>482</v>
@@ -18275,7 +18268,7 @@
         <v>484</v>
       </c>
       <c r="G192" s="13" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H192" s="13" t="s">
         <v>482</v>
@@ -18342,7 +18335,7 @@
         <v>466</v>
       </c>
       <c r="G193" s="13" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H193" s="13" t="s">
         <v>482</v>
@@ -18409,7 +18402,7 @@
         <v>486</v>
       </c>
       <c r="G194" s="13" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H194" s="13" t="s">
         <v>487</v>
@@ -18476,7 +18469,7 @@
         <v>474</v>
       </c>
       <c r="G195" s="13" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H195" s="13" t="s">
         <v>488</v>
@@ -18543,7 +18536,7 @@
         <v>490</v>
       </c>
       <c r="G196" s="13" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H196" s="13" t="s">
         <v>491</v>
@@ -18610,7 +18603,7 @@
         <v>481</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H197" s="13" t="s">
         <v>492</v>
@@ -18677,7 +18670,7 @@
         <v>495</v>
       </c>
       <c r="G198" s="13" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H198" s="13" t="s">
         <v>496</v>
@@ -18744,7 +18737,7 @@
         <v>498</v>
       </c>
       <c r="G199" s="13" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H199" s="13" t="s">
         <v>496</v>
@@ -18811,7 +18804,7 @@
         <v>499</v>
       </c>
       <c r="G200" s="13" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H200" s="13" t="s">
         <v>500</v>
@@ -18878,7 +18871,7 @@
         <v>501</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H201" s="13" t="s">
         <v>502</v>
@@ -18945,7 +18938,7 @@
         <v>503</v>
       </c>
       <c r="G202" s="13" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H202" s="13" t="s">
         <v>504</v>
@@ -19012,7 +19005,7 @@
         <v>505</v>
       </c>
       <c r="G203" s="13" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H203" s="13" t="s">
         <v>506</v>
@@ -19079,7 +19072,7 @@
         <v>507</v>
       </c>
       <c r="G204" s="13" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H204" s="13" t="s">
         <v>508</v>
@@ -19213,7 +19206,7 @@
         <v>512</v>
       </c>
       <c r="G206" s="13" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H206" s="13" t="s">
         <v>513</v>
@@ -19280,7 +19273,7 @@
         <v>514</v>
       </c>
       <c r="G207" s="13" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H207" s="13" t="s">
         <v>515</v>
@@ -19347,7 +19340,7 @@
         <v>516</v>
       </c>
       <c r="G208" s="13" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H208" s="13" t="s">
         <v>285</v>
@@ -19414,7 +19407,7 @@
         <v>517</v>
       </c>
       <c r="G209" s="13" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H209" s="13" t="s">
         <v>518</v>
@@ -24644,7 +24637,7 @@
         <v>674</v>
       </c>
       <c r="G287" s="13" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H287" s="13" t="s">
         <v>675</v>
@@ -26119,7 +26112,7 @@
         <v>720</v>
       </c>
       <c r="G310" s="13" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H310" s="13" t="s">
         <v>513</v>
@@ -26186,7 +26179,7 @@
         <v>721</v>
       </c>
       <c r="G311" s="13" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H311" s="13" t="s">
         <v>513</v>
@@ -26381,7 +26374,7 @@
         <v>726</v>
       </c>
       <c r="G314" s="13" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H314" s="13">
         <v>340</v>
@@ -26448,7 +26441,7 @@
         <v>727</v>
       </c>
       <c r="G315" s="13" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H315" s="13">
         <v>340</v>
@@ -26515,7 +26508,7 @@
         <v>728</v>
       </c>
       <c r="G316" s="13" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H316" s="13">
         <v>270</v>
@@ -26582,7 +26575,7 @@
         <v>729</v>
       </c>
       <c r="G317" s="13" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H317" s="13">
         <v>270</v>
@@ -28859,7 +28852,7 @@
         <v>816</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H365" s="1" t="s">
         <v>817</v>
@@ -28908,7 +28901,7 @@
         <v>816</v>
       </c>
       <c r="G366" s="1" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H366" s="1" t="s">
         <v>817</v>
@@ -37093,7 +37086,7 @@
         <v>42387</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="E548" s="1" t="s">
         <v>1178</v>
@@ -38308,7 +38301,7 @@
         <v>42455</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="E575" s="1" t="s">
         <v>1240</v>
@@ -39877,8 +39870,8 @@
       <c r="B610" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C610" s="2">
-        <v>41465</v>
+      <c r="C610" s="14">
+        <v>41794</v>
       </c>
       <c r="D610" s="1" t="s">
         <v>148</v>
@@ -40016,7 +40009,7 @@
         <v>42131</v>
       </c>
       <c r="D613" s="1" t="s">
-        <v>1316</v>
+        <v>1654</v>
       </c>
       <c r="E613" s="1" t="s">
         <v>1318</v>
@@ -40331,13 +40324,13 @@
         <v>41647</v>
       </c>
       <c r="D620" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E620" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="E620" s="1" t="s">
-        <v>1331</v>
-      </c>
       <c r="F620" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G620" s="1" t="s">
         <v>1329</v>
@@ -40373,19 +40366,19 @@
         <v>127</v>
       </c>
       <c r="C621" s="2">
-        <v>41684</v>
+        <v>41647</v>
       </c>
       <c r="D621" s="1" t="s">
         <v>1320</v>
       </c>
       <c r="E621" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F621" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G621" s="1" t="s">
         <v>1332</v>
-      </c>
-      <c r="F621" s="1" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G621" s="1" t="s">
-        <v>1333</v>
       </c>
       <c r="H621" s="1" t="s">
         <v>5</v>
@@ -40418,19 +40411,19 @@
         <v>127</v>
       </c>
       <c r="C622" s="2">
-        <v>41684</v>
+        <v>41647</v>
       </c>
       <c r="D622" s="1" t="s">
         <v>1320</v>
       </c>
       <c r="E622" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F622" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G622" s="1" t="s">
         <v>1334</v>
-      </c>
-      <c r="F622" s="1" t="s">
-        <v>1334</v>
-      </c>
-      <c r="G622" s="1" t="s">
-        <v>1335</v>
       </c>
       <c r="H622" s="1" t="s">
         <v>5</v>
@@ -40466,16 +40459,16 @@
         <v>42600</v>
       </c>
       <c r="D623" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E623" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="E623" s="1" t="s">
+      <c r="F623" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="G623" s="1" t="s">
         <v>1337</v>
-      </c>
-      <c r="F623" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="G623" s="1" t="s">
-        <v>1338</v>
       </c>
       <c r="H623" s="1" t="s">
         <v>5</v>
@@ -40511,25 +40504,25 @@
         <v>42690</v>
       </c>
       <c r="D624" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E624" s="24" t="s">
         <v>1339</v>
       </c>
-      <c r="E624" s="24" t="s">
+      <c r="F624" s="24" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G624" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="F624" s="24" t="s">
-        <v>1340</v>
-      </c>
-      <c r="G624" s="1" t="s">
+      <c r="H624" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I624" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J624" s="1" t="s">
         <v>1341</v>
-      </c>
-      <c r="H624" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I624" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J624" s="1" t="s">
-        <v>1342</v>
       </c>
       <c r="K624" s="1">
         <v>3</v>
@@ -40558,17 +40551,17 @@
         <v>42690</v>
       </c>
       <c r="D625" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E625" s="24" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F625" s="24" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G625" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="F625" s="24" t="s">
-        <v>1343</v>
-      </c>
-      <c r="G625" s="1" t="s">
-        <v>1344</v>
-      </c>
       <c r="H625" s="1" t="s">
         <v>5</v>
       </c>
@@ -40576,7 +40569,7 @@
         <v>5</v>
       </c>
       <c r="J625" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="K625" s="1">
         <v>3</v>
@@ -40603,17 +40596,17 @@
         <v>42690</v>
       </c>
       <c r="D626" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E626" s="24" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F626" s="24" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G626" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="F626" s="24" t="s">
-        <v>1345</v>
-      </c>
-      <c r="G626" s="1" t="s">
-        <v>1346</v>
-      </c>
       <c r="H626" s="1" t="s">
         <v>5</v>
       </c>
@@ -40621,7 +40614,7 @@
         <v>5</v>
       </c>
       <c r="J626" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="K626" s="1">
         <v>3</v>
@@ -40650,17 +40643,17 @@
         <v>42690</v>
       </c>
       <c r="D627" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E627" s="24" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F627" s="24" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G627" s="1" t="s">
         <v>1347</v>
       </c>
-      <c r="F627" s="24" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G627" s="1" t="s">
-        <v>1348</v>
-      </c>
       <c r="H627" s="1" t="s">
         <v>5</v>
       </c>
@@ -40668,7 +40661,7 @@
         <v>5</v>
       </c>
       <c r="J627" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="K627" s="1">
         <v>2</v>
@@ -40695,17 +40688,17 @@
         <v>42690</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E628" s="24" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F628" s="24" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G628" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="F628" s="24" t="s">
-        <v>1349</v>
-      </c>
-      <c r="G628" s="1" t="s">
-        <v>1350</v>
-      </c>
       <c r="H628" s="1" t="s">
         <v>5</v>
       </c>
@@ -40713,7 +40706,7 @@
         <v>5</v>
       </c>
       <c r="J628" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="K628" s="1">
         <v>2</v>
@@ -40740,17 +40733,17 @@
         <v>42690</v>
       </c>
       <c r="D629" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E629" s="24" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F629" s="24" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G629" s="1" t="s">
         <v>1351</v>
       </c>
-      <c r="F629" s="24" t="s">
-        <v>1351</v>
-      </c>
-      <c r="G629" s="1" t="s">
-        <v>1352</v>
-      </c>
       <c r="H629" s="1" t="s">
         <v>5</v>
       </c>
@@ -40758,7 +40751,7 @@
         <v>5</v>
       </c>
       <c r="J629" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="K629" s="1">
         <v>2</v>
@@ -40785,17 +40778,17 @@
         <v>42690</v>
       </c>
       <c r="D630" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E630" s="24" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F630" s="24" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G630" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="F630" s="24" t="s">
-        <v>1353</v>
-      </c>
-      <c r="G630" s="1" t="s">
-        <v>1354</v>
-      </c>
       <c r="H630" s="1" t="s">
         <v>5</v>
       </c>
@@ -40803,7 +40796,7 @@
         <v>5</v>
       </c>
       <c r="J630" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="K630" s="1">
         <v>3</v>
@@ -40830,17 +40823,17 @@
         <v>42468</v>
       </c>
       <c r="D631" s="5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E631" s="5" t="s">
         <v>1355</v>
       </c>
-      <c r="E631" s="5" t="s">
+      <c r="F631" s="5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G631" s="5" t="s">
         <v>1356</v>
       </c>
-      <c r="F631" s="5" t="s">
-        <v>1356</v>
-      </c>
-      <c r="G631" s="5" t="s">
-        <v>1357</v>
-      </c>
       <c r="H631" s="5" t="s">
         <v>5</v>
       </c>
@@ -40848,7 +40841,7 @@
         <v>5</v>
       </c>
       <c r="J631" s="5" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="K631" s="5">
         <v>1</v>
@@ -40873,17 +40866,17 @@
         <v>42468</v>
       </c>
       <c r="D632" s="5" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E632" s="5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F632" s="5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G632" s="5" t="s">
         <v>1358</v>
       </c>
-      <c r="F632" s="5" t="s">
-        <v>1358</v>
-      </c>
-      <c r="G632" s="5" t="s">
-        <v>1359</v>
-      </c>
       <c r="H632" s="5" t="s">
         <v>5</v>
       </c>
@@ -40891,7 +40884,7 @@
         <v>5</v>
       </c>
       <c r="J632" s="5" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="K632" s="5">
         <v>1</v>
@@ -40916,17 +40909,17 @@
         <v>42983</v>
       </c>
       <c r="D633" s="5" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E633" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="E633" s="5" t="s">
+      <c r="F633" s="5" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G633" s="5" t="s">
         <v>1361</v>
       </c>
-      <c r="F633" s="5" t="s">
-        <v>1361</v>
-      </c>
-      <c r="G633" s="5" t="s">
-        <v>1362</v>
-      </c>
       <c r="H633" s="5">
         <v>0</v>
       </c>
@@ -40934,7 +40927,7 @@
         <v>0</v>
       </c>
       <c r="J633" s="5" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="K633" s="5">
         <v>3</v>
@@ -40964,22 +40957,22 @@
         <v>11180201482</v>
       </c>
       <c r="E634" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F634" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="G634" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="F634" s="1" t="s">
-        <v>1363</v>
-      </c>
-      <c r="G634" s="1" t="s">
+      <c r="H634" s="1">
+        <v>0</v>
+      </c>
+      <c r="I634" s="1">
+        <v>0</v>
+      </c>
+      <c r="J634" s="1" t="s">
         <v>1364</v>
-      </c>
-      <c r="H634" s="1">
-        <v>0</v>
-      </c>
-      <c r="I634" s="1">
-        <v>0</v>
-      </c>
-      <c r="J634" s="1" t="s">
-        <v>1365</v>
       </c>
       <c r="K634" s="1">
         <v>5</v>
@@ -41009,14 +41002,14 @@
         <v>11180201482</v>
       </c>
       <c r="E635" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F635" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="G635" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="F635" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="G635" s="1" t="s">
-        <v>1367</v>
-      </c>
       <c r="H635" s="1">
         <v>0</v>
       </c>
@@ -41024,7 +41017,7 @@
         <v>0</v>
       </c>
       <c r="J635" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="K635" s="1">
         <v>12</v>
@@ -41054,14 +41047,14 @@
         <v>11180201482</v>
       </c>
       <c r="E636" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F636" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G636" s="1" t="s">
         <v>1368</v>
       </c>
-      <c r="F636" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="G636" s="1" t="s">
-        <v>1369</v>
-      </c>
       <c r="H636" s="1">
         <v>0</v>
       </c>
@@ -41069,7 +41062,7 @@
         <v>0</v>
       </c>
       <c r="J636" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="K636" s="1">
         <v>3</v>
@@ -41096,25 +41089,25 @@
         <v>42775</v>
       </c>
       <c r="D637" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E637" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F637" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G637" s="5" t="s">
         <v>1370</v>
       </c>
-      <c r="E637" s="5" t="s">
-        <v>1370</v>
-      </c>
-      <c r="F637" s="5" t="s">
-        <v>1370</v>
-      </c>
-      <c r="G637" s="5" t="s">
+      <c r="H637" s="5">
+        <v>0</v>
+      </c>
+      <c r="I637" s="5">
+        <v>0</v>
+      </c>
+      <c r="J637" s="7" t="s">
         <v>1371</v>
-      </c>
-      <c r="H637" s="5">
-        <v>0</v>
-      </c>
-      <c r="I637" s="5">
-        <v>0</v>
-      </c>
-      <c r="J637" s="7" t="s">
-        <v>1372</v>
       </c>
       <c r="K637" s="5"/>
       <c r="L637" s="5"/>
@@ -41131,31 +41124,31 @@
         <v>2371</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C638" s="2">
         <v>42359</v>
       </c>
       <c r="D638" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E638" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="E638" s="1" t="s">
+      <c r="F638" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G638" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="F638" s="1" t="s">
-        <v>1375</v>
-      </c>
-      <c r="G638" s="1" t="s">
+      <c r="H638" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I638" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J638" s="1" t="s">
         <v>1376</v>
-      </c>
-      <c r="H638" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I638" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J638" s="1" t="s">
-        <v>1377</v>
       </c>
       <c r="K638" s="1">
         <v>2</v>
@@ -41176,23 +41169,23 @@
         <v>2372</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C639" s="2">
         <v>42359</v>
       </c>
       <c r="D639" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E639" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="E639" s="1" t="s">
-        <v>1375</v>
-      </c>
       <c r="F639" s="7" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G639" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="G639" s="1" t="s">
-        <v>1379</v>
-      </c>
       <c r="H639" s="1" t="s">
         <v>5</v>
       </c>
@@ -41200,7 +41193,7 @@
         <v>5</v>
       </c>
       <c r="J639" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="K639" s="1">
         <v>1</v>
@@ -41221,31 +41214,31 @@
         <v>2382</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C640" s="2">
         <v>42725</v>
       </c>
       <c r="D640" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E640" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F640" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="G640" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="E640" s="1" t="s">
-        <v>1381</v>
-      </c>
-      <c r="F640" s="1" t="s">
-        <v>1381</v>
-      </c>
-      <c r="G640" s="1" t="s">
+      <c r="H640" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I640" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J640" s="1" t="s">
         <v>1382</v>
-      </c>
-      <c r="H640" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I640" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J640" s="1" t="s">
-        <v>1383</v>
       </c>
       <c r="K640" s="1">
         <v>7</v>
@@ -41266,7 +41259,7 @@
         <v>1449</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C641" s="2">
         <v>42041</v>
@@ -41275,22 +41268,22 @@
         <v>1550</v>
       </c>
       <c r="E641" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F641" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G641" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="F641" s="1" t="s">
-        <v>1384</v>
-      </c>
-      <c r="G641" s="1" t="s">
+      <c r="H641" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I641" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J641" s="1" t="s">
         <v>1385</v>
-      </c>
-      <c r="H641" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I641" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J641" s="1" t="s">
-        <v>1386</v>
       </c>
       <c r="K641" s="1">
         <v>12</v>
@@ -41311,7 +41304,7 @@
         <v>1450</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C642" s="2">
         <v>42088</v>
@@ -41320,14 +41313,14 @@
         <v>2063</v>
       </c>
       <c r="E642" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F642" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G642" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="F642" s="1" t="s">
-        <v>1387</v>
-      </c>
-      <c r="G642" s="1" t="s">
-        <v>1388</v>
-      </c>
       <c r="H642" s="1" t="s">
         <v>5</v>
       </c>
@@ -41335,7 +41328,7 @@
         <v>5</v>
       </c>
       <c r="J642" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K642" s="1">
         <v>24</v>
@@ -41356,7 +41349,7 @@
         <v>1451</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C643" s="2">
         <v>42108</v>
@@ -41365,14 +41358,14 @@
         <v>2261</v>
       </c>
       <c r="E643" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F643" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G643" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="F643" s="1" t="s">
-        <v>1389</v>
-      </c>
-      <c r="G643" s="1" t="s">
-        <v>1390</v>
-      </c>
       <c r="H643" s="1" t="s">
         <v>5</v>
       </c>
@@ -41380,7 +41373,7 @@
         <v>5</v>
       </c>
       <c r="J643" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K643" s="1">
         <v>24</v>
@@ -41401,7 +41394,7 @@
         <v>1452</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C644" s="2">
         <v>42088</v>
@@ -41410,14 +41403,14 @@
         <v>2063</v>
       </c>
       <c r="E644" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F644" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G644" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="F644" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="G644" s="1" t="s">
-        <v>1392</v>
-      </c>
       <c r="H644" s="1" t="s">
         <v>5</v>
       </c>
@@ -41425,7 +41418,7 @@
         <v>5</v>
       </c>
       <c r="J644" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K644" s="1">
         <v>24</v>
@@ -41446,7 +41439,7 @@
         <v>1453</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C645" s="2">
         <v>42102</v>
@@ -41455,14 +41448,14 @@
         <v>2191</v>
       </c>
       <c r="E645" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F645" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G645" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="F645" s="1" t="s">
-        <v>1393</v>
-      </c>
-      <c r="G645" s="1" t="s">
-        <v>1394</v>
-      </c>
       <c r="H645" s="1" t="s">
         <v>5</v>
       </c>
@@ -41470,7 +41463,7 @@
         <v>5</v>
       </c>
       <c r="J645" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K645" s="1">
         <v>24</v>
@@ -41491,7 +41484,7 @@
         <v>1454</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C646" s="2">
         <v>42088</v>
@@ -41500,14 +41493,14 @@
         <v>2063</v>
       </c>
       <c r="E646" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F646" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G646" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="F646" s="1" t="s">
-        <v>1395</v>
-      </c>
-      <c r="G646" s="1" t="s">
-        <v>1396</v>
-      </c>
       <c r="H646" s="1" t="s">
         <v>5</v>
       </c>
@@ -41515,7 +41508,7 @@
         <v>5</v>
       </c>
       <c r="J646" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K646" s="1">
         <v>20</v>
@@ -41536,7 +41529,7 @@
         <v>1455</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C647" s="2">
         <v>42053</v>
@@ -41545,14 +41538,14 @@
         <v>1681</v>
       </c>
       <c r="E647" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F647" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G647" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="F647" s="1" t="s">
-        <v>1397</v>
-      </c>
-      <c r="G647" s="1" t="s">
-        <v>1398</v>
-      </c>
       <c r="H647" s="1" t="s">
         <v>5</v>
       </c>
@@ -41560,7 +41553,7 @@
         <v>5</v>
       </c>
       <c r="J647" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K647" s="1">
         <v>12</v>
@@ -41587,21 +41580,21 @@
         <v>42740</v>
       </c>
       <c r="D648" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E648" s="1" t="s">
         <v>1399</v>
       </c>
-      <c r="E648" s="1" t="s">
+      <c r="F648" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G648" s="1" t="s">
         <v>1400</v>
-      </c>
-      <c r="F648" s="1" t="s">
-        <v>1400</v>
-      </c>
-      <c r="G648" s="1" t="s">
-        <v>1401</v>
       </c>
       <c r="H648" s="1"/>
       <c r="I648" s="1"/>
       <c r="J648" s="1" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="K648" s="1">
         <v>1</v>
@@ -41628,21 +41621,21 @@
         <v>42740</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="E649" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F649" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="G649" s="1" t="s">
         <v>1403</v>
-      </c>
-      <c r="F649" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="G649" s="1" t="s">
-        <v>1404</v>
       </c>
       <c r="H649" s="1"/>
       <c r="I649" s="1"/>
       <c r="J649" s="1" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="K649" s="1">
         <v>1</v>
@@ -41672,22 +41665,22 @@
         <v>12180200679</v>
       </c>
       <c r="E650" s="24" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F650" s="24" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G650" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="F650" s="24" t="s">
-        <v>1405</v>
-      </c>
-      <c r="G650" s="1" t="s">
+      <c r="H650" s="1">
+        <v>0</v>
+      </c>
+      <c r="I650" s="1">
+        <v>0</v>
+      </c>
+      <c r="J650" s="1" t="s">
         <v>1406</v>
-      </c>
-      <c r="H650" s="1">
-        <v>0</v>
-      </c>
-      <c r="I650" s="1">
-        <v>0</v>
-      </c>
-      <c r="J650" s="1" t="s">
-        <v>1407</v>
       </c>
       <c r="K650" s="1">
         <v>2</v>
@@ -41717,14 +41710,14 @@
         <v>12180200679</v>
       </c>
       <c r="E651" s="24" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F651" s="24" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G651" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="F651" s="24" t="s">
-        <v>1408</v>
-      </c>
-      <c r="G651" s="1" t="s">
-        <v>1409</v>
-      </c>
       <c r="H651" s="1">
         <v>0</v>
       </c>
@@ -41732,7 +41725,7 @@
         <v>0</v>
       </c>
       <c r="J651" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="K651" s="1">
         <v>2</v>
@@ -41762,14 +41755,14 @@
         <v>12180200679</v>
       </c>
       <c r="E652" s="24" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F652" s="24" t="s">
+        <v>1409</v>
+      </c>
+      <c r="G652" s="1" t="s">
         <v>1410</v>
       </c>
-      <c r="F652" s="24" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G652" s="1" t="s">
-        <v>1411</v>
-      </c>
       <c r="H652" s="1">
         <v>0</v>
       </c>
@@ -41777,7 +41770,7 @@
         <v>0</v>
       </c>
       <c r="J652" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="K652" s="1">
         <v>2</v>
@@ -41804,25 +41797,25 @@
         <v>42318</v>
       </c>
       <c r="D653" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E653" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="E653" s="1" t="s">
+      <c r="F653" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="G653" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="F653" s="1" t="s">
-        <v>1413</v>
-      </c>
-      <c r="G653" s="1" t="s">
+      <c r="H653" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I653" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J653" s="1" t="s">
         <v>1414</v>
-      </c>
-      <c r="H653" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I653" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J653" s="1" t="s">
-        <v>1415</v>
       </c>
       <c r="K653" s="1">
         <v>1</v>
@@ -41849,17 +41842,17 @@
         <v>42318</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E654" s="24" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F654" s="24" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G654" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="F654" s="24" t="s">
-        <v>1416</v>
-      </c>
-      <c r="G654" s="1" t="s">
-        <v>1417</v>
-      </c>
       <c r="H654" s="1" t="s">
         <v>5</v>
       </c>
@@ -41867,7 +41860,7 @@
         <v>5</v>
       </c>
       <c r="J654" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="K654" s="1">
         <v>1</v>
@@ -41894,17 +41887,17 @@
         <v>42318</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E655" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F655" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G655" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="F655" s="1" t="s">
-        <v>1418</v>
-      </c>
-      <c r="G655" s="1" t="s">
-        <v>1419</v>
-      </c>
       <c r="H655" s="1" t="s">
         <v>5</v>
       </c>
@@ -41912,7 +41905,7 @@
         <v>5</v>
       </c>
       <c r="J655" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="K655" s="1">
         <v>2</v>
@@ -41939,17 +41932,17 @@
         <v>42318</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E656" s="24" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F656" s="24" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G656" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="F656" s="24" t="s">
-        <v>1420</v>
-      </c>
-      <c r="G656" s="1" t="s">
-        <v>1421</v>
-      </c>
       <c r="H656" s="1" t="s">
         <v>5</v>
       </c>
@@ -41957,7 +41950,7 @@
         <v>5</v>
       </c>
       <c r="J656" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="K656" s="1">
         <v>2</v>
@@ -41981,20 +41974,20 @@
         <v>2</v>
       </c>
       <c r="C657" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D657" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E657" s="24" t="s">
         <v>1422</v>
       </c>
-      <c r="D657" s="1" t="s">
-        <v>1415</v>
-      </c>
-      <c r="E657" s="24" t="s">
+      <c r="F657" s="24" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G657" s="1" t="s">
         <v>1423</v>
       </c>
-      <c r="F657" s="24" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G657" s="1" t="s">
-        <v>1424</v>
-      </c>
       <c r="H657" s="1" t="s">
         <v>5</v>
       </c>
@@ -42002,7 +41995,7 @@
         <v>5</v>
       </c>
       <c r="J657" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="K657" s="1">
         <v>6</v>
@@ -42026,20 +42019,20 @@
         <v>2</v>
       </c>
       <c r="C658" s="2" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D658" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E658" s="24" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F658" s="24" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G658" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="F658" s="24" t="s">
-        <v>1425</v>
-      </c>
-      <c r="G658" s="1" t="s">
-        <v>1426</v>
-      </c>
       <c r="H658" s="1" t="s">
         <v>5</v>
       </c>
@@ -42047,7 +42040,7 @@
         <v>5</v>
       </c>
       <c r="J658" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="K658" s="1">
         <v>5</v>
@@ -42071,19 +42064,19 @@
         <v>2</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E659" s="24" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="F659" s="24" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G659" s="1" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H659" s="1" t="s">
         <v>5</v>
@@ -42092,7 +42085,7 @@
         <v>5</v>
       </c>
       <c r="J659" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="K659" s="1">
         <v>5</v>
@@ -42119,17 +42112,17 @@
         <v>42723</v>
       </c>
       <c r="D660" s="24" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E660" s="24" t="s">
         <v>1428</v>
       </c>
-      <c r="E660" s="24" t="s">
+      <c r="F660" s="24" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G660" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="F660" s="24" t="s">
-        <v>1429</v>
-      </c>
-      <c r="G660" s="1" t="s">
-        <v>1430</v>
-      </c>
       <c r="H660" s="1" t="s">
         <v>5</v>
       </c>
@@ -42137,7 +42130,7 @@
         <v>5</v>
       </c>
       <c r="J660" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="K660" s="1">
         <v>5</v>
@@ -42164,17 +42157,17 @@
         <v>42723</v>
       </c>
       <c r="D661" s="24" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="E661" s="24" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F661" s="24" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G661" s="1" t="s">
         <v>1431</v>
       </c>
-      <c r="F661" s="24" t="s">
-        <v>1431</v>
-      </c>
-      <c r="G661" s="1" t="s">
-        <v>1432</v>
-      </c>
       <c r="H661" s="1" t="s">
         <v>5</v>
       </c>
@@ -42182,7 +42175,7 @@
         <v>5</v>
       </c>
       <c r="J661" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="K661" s="1">
         <v>1</v>
@@ -42209,17 +42202,17 @@
         <v>42723</v>
       </c>
       <c r="D662" s="24" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="E662" s="24" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F662" s="24" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G662" s="1" t="s">
         <v>1433</v>
       </c>
-      <c r="F662" s="24" t="s">
-        <v>1433</v>
-      </c>
-      <c r="G662" s="1" t="s">
-        <v>1434</v>
-      </c>
       <c r="H662" s="1" t="s">
         <v>5</v>
       </c>
@@ -42227,7 +42220,7 @@
         <v>5</v>
       </c>
       <c r="J662" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="K662" s="1">
         <v>1</v>
@@ -42254,17 +42247,17 @@
         <v>42468</v>
       </c>
       <c r="D663" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E663" s="24" t="s">
         <v>1435</v>
       </c>
-      <c r="E663" s="24" t="s">
+      <c r="F663" s="24" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G663" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="F663" s="24" t="s">
-        <v>1436</v>
-      </c>
-      <c r="G663" s="1" t="s">
-        <v>1437</v>
-      </c>
       <c r="H663" s="1" t="s">
         <v>5</v>
       </c>
@@ -42272,7 +42265,7 @@
         <v>5</v>
       </c>
       <c r="J663" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="K663" s="1">
         <v>10</v>
@@ -42299,17 +42292,17 @@
         <v>42468</v>
       </c>
       <c r="D664" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E664" s="24" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F664" s="24" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G664" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="F664" s="24" t="s">
-        <v>1438</v>
-      </c>
-      <c r="G664" s="1" t="s">
-        <v>1439</v>
-      </c>
       <c r="H664" s="1" t="s">
         <v>5</v>
       </c>
@@ -42317,7 +42310,7 @@
         <v>5</v>
       </c>
       <c r="J664" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="K664" s="1">
         <v>1</v>
@@ -42344,17 +42337,17 @@
         <v>42468</v>
       </c>
       <c r="D665" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E665" s="24" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F665" s="24" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G665" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="F665" s="24" t="s">
-        <v>1440</v>
-      </c>
-      <c r="G665" s="1" t="s">
-        <v>1441</v>
-      </c>
       <c r="H665" s="1" t="s">
         <v>5</v>
       </c>
@@ -42362,7 +42355,7 @@
         <v>5</v>
       </c>
       <c r="J665" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="K665" s="1">
         <v>2</v>
@@ -42389,17 +42382,17 @@
         <v>42468</v>
       </c>
       <c r="D666" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E666" s="24" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F666" s="24" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G666" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="F666" s="24" t="s">
-        <v>1442</v>
-      </c>
-      <c r="G666" s="1" t="s">
-        <v>1443</v>
-      </c>
       <c r="H666" s="1" t="s">
         <v>5</v>
       </c>
@@ -42407,7 +42400,7 @@
         <v>5</v>
       </c>
       <c r="J666" s="1" t="s">
-        <v>1444</v>
+        <v>1414</v>
       </c>
       <c r="K666" s="1">
         <v>2</v>
@@ -42434,16 +42427,16 @@
         <v>43000</v>
       </c>
       <c r="D667" s="5" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E667" s="5" t="s">
         <v>1445</v>
       </c>
-      <c r="E667" s="5" t="s">
+      <c r="F667" s="5" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G667" s="5" t="s">
         <v>1446</v>
-      </c>
-      <c r="F667" s="5" t="s">
-        <v>1446</v>
-      </c>
-      <c r="G667" s="5" t="s">
-        <v>1447</v>
       </c>
       <c r="H667" s="5">
         <v>0</v>
@@ -42481,16 +42474,16 @@
         <v>43033</v>
       </c>
       <c r="D668" s="5" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E668" s="5" t="s">
         <v>1448</v>
       </c>
-      <c r="E668" s="5" t="s">
+      <c r="F668" s="5" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G668" s="5" t="s">
         <v>1449</v>
-      </c>
-      <c r="F668" s="5" t="s">
-        <v>1449</v>
-      </c>
-      <c r="G668" s="5" t="s">
-        <v>1450</v>
       </c>
       <c r="H668" s="5">
         <v>0</v>
@@ -42513,7 +42506,7 @@
     </row>
     <row r="669" spans="1:15">
       <c r="A669" s="1">
-        <v>5688</v>
+        <v>5689</v>
       </c>
       <c r="B669" s="1" t="s">
         <v>0</v>
@@ -42521,17 +42514,17 @@
       <c r="C669" s="2">
         <v>42551</v>
       </c>
-      <c r="D669" s="1" t="s">
-        <v>277</v>
+      <c r="D669" s="1">
+        <v>64501</v>
       </c>
       <c r="E669" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F669" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G669" s="1" t="s">
         <v>1451</v>
-      </c>
-      <c r="F669" s="1" t="s">
-        <v>1451</v>
-      </c>
-      <c r="G669" s="1" t="s">
-        <v>1452</v>
       </c>
       <c r="H669" s="1" t="s">
         <v>5</v>
@@ -42557,53 +42550,51 @@
       </c>
     </row>
     <row r="670" spans="1:15">
-      <c r="A670" s="1">
-        <v>5689</v>
-      </c>
-      <c r="B670" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C670" s="2">
-        <v>42551</v>
-      </c>
-      <c r="D670" s="1">
-        <v>64501</v>
-      </c>
-      <c r="E670" s="1" t="s">
-        <v>1451</v>
-      </c>
-      <c r="F670" s="1" t="s">
-        <v>1451</v>
-      </c>
-      <c r="G670" s="1" t="s">
+      <c r="A670" s="5">
+        <v>3423</v>
+      </c>
+      <c r="B670" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C670" s="6">
+        <v>43102</v>
+      </c>
+      <c r="D670" s="7" t="s">
         <v>1452</v>
       </c>
-      <c r="H670" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I670" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J670" s="1" t="s">
+      <c r="E670" s="5" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F670" s="5" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G670" s="5" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H670" s="5">
+        <v>0</v>
+      </c>
+      <c r="I670" s="5">
+        <v>0</v>
+      </c>
+      <c r="J670" s="5" t="s">
+        <v>1455</v>
+      </c>
+      <c r="K670" s="5">
         <v>1</v>
       </c>
-      <c r="K670" s="1">
-        <v>5</v>
-      </c>
-      <c r="L670" s="1"/>
-      <c r="M670" s="1">
-        <v>5</v>
-      </c>
-      <c r="N670" s="1">
-        <v>23625</v>
-      </c>
-      <c r="O670" s="1">
-        <v>34000</v>
-      </c>
+      <c r="L670" s="5"/>
+      <c r="M670" s="5">
+        <v>1</v>
+      </c>
+      <c r="N670" s="5">
+        <v>5500</v>
+      </c>
+      <c r="O670" s="5"/>
     </row>
     <row r="671" spans="1:15">
       <c r="A671" s="5">
-        <v>3423</v>
+        <v>3424</v>
       </c>
       <c r="B671" s="5" t="s">
         <v>0</v>
@@ -42612,25 +42603,25 @@
         <v>43102</v>
       </c>
       <c r="D671" s="7" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E671" s="5" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="F671" s="5" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="G671" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H671" s="5">
+        <v>0</v>
+      </c>
+      <c r="I671" s="5">
+        <v>0</v>
+      </c>
+      <c r="J671" s="5" t="s">
         <v>1455</v>
-      </c>
-      <c r="H671" s="5">
-        <v>0</v>
-      </c>
-      <c r="I671" s="5">
-        <v>0</v>
-      </c>
-      <c r="J671" s="5" t="s">
-        <v>1456</v>
       </c>
       <c r="K671" s="5">
         <v>1</v>
@@ -42640,56 +42631,58 @@
         <v>1</v>
       </c>
       <c r="N671" s="5">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="O671" s="5"/>
     </row>
     <row r="672" spans="1:15">
-      <c r="A672" s="5">
-        <v>3424</v>
-      </c>
-      <c r="B672" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C672" s="6">
-        <v>43102</v>
-      </c>
-      <c r="D672" s="7" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E672" s="5" t="s">
-        <v>1457</v>
-      </c>
-      <c r="F672" s="5" t="s">
-        <v>1457</v>
-      </c>
-      <c r="G672" s="5" t="s">
+      <c r="A672" s="1">
+        <v>3439</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C672" s="2">
+        <v>42720</v>
+      </c>
+      <c r="D672" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="H672" s="5">
-        <v>0</v>
-      </c>
-      <c r="I672" s="5">
-        <v>0</v>
-      </c>
-      <c r="J672" s="5" t="s">
-        <v>1456</v>
-      </c>
-      <c r="K672" s="5">
-        <v>1</v>
-      </c>
-      <c r="L672" s="5"/>
-      <c r="M672" s="5">
-        <v>1</v>
-      </c>
-      <c r="N672" s="5">
-        <v>10500</v>
-      </c>
-      <c r="O672" s="5"/>
+      <c r="E672" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F672" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="G672" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H672" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I672" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J672" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K672" s="1">
+        <v>5</v>
+      </c>
+      <c r="L672" s="1"/>
+      <c r="M672" s="1">
+        <v>5</v>
+      </c>
+      <c r="N672" s="1">
+        <v>87840</v>
+      </c>
+      <c r="O672" s="1">
+        <v>100000</v>
+      </c>
     </row>
     <row r="673" spans="1:15">
       <c r="A673" s="1">
-        <v>3439</v>
+        <v>3440</v>
       </c>
       <c r="B673" s="1" t="s">
         <v>127</v>
@@ -42698,25 +42691,25 @@
         <v>42720</v>
       </c>
       <c r="D673" s="1" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E673" s="1" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="F673" s="1" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="G673" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="H673" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I673" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J673" s="1" t="s">
         <v>1461</v>
-      </c>
-      <c r="H673" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I673" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J673" s="1" t="s">
-        <v>1462</v>
       </c>
       <c r="K673" s="1">
         <v>5</v>
@@ -42726,15 +42719,15 @@
         <v>5</v>
       </c>
       <c r="N673" s="1">
-        <v>87840</v>
+        <v>105120</v>
       </c>
       <c r="O673" s="1">
-        <v>100000</v>
+        <v>118000</v>
       </c>
     </row>
     <row r="674" spans="1:15">
       <c r="A674" s="1">
-        <v>3440</v>
+        <v>3441</v>
       </c>
       <c r="B674" s="1" t="s">
         <v>127</v>
@@ -42743,16 +42736,16 @@
         <v>42720</v>
       </c>
       <c r="D674" s="1" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E674" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="F674" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="G674" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="H674" s="1" t="s">
         <v>5</v>
@@ -42761,7 +42754,7 @@
         <v>5</v>
       </c>
       <c r="J674" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="K674" s="1">
         <v>5</v>
@@ -42771,15 +42764,15 @@
         <v>5</v>
       </c>
       <c r="N674" s="1">
-        <v>105120</v>
+        <v>126720</v>
       </c>
       <c r="O674" s="1">
-        <v>118000</v>
+        <v>142000</v>
       </c>
     </row>
     <row r="675" spans="1:15">
       <c r="A675" s="1">
-        <v>3441</v>
+        <v>3442</v>
       </c>
       <c r="B675" s="1" t="s">
         <v>127</v>
@@ -42788,16 +42781,16 @@
         <v>42720</v>
       </c>
       <c r="D675" s="1" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E675" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="F675" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="G675" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="H675" s="1" t="s">
         <v>5</v>
@@ -42806,7 +42799,7 @@
         <v>5</v>
       </c>
       <c r="J675" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="K675" s="1">
         <v>5</v>
@@ -42816,15 +42809,15 @@
         <v>5</v>
       </c>
       <c r="N675" s="1">
-        <v>126720</v>
+        <v>105120</v>
       </c>
       <c r="O675" s="1">
-        <v>142000</v>
+        <v>118000</v>
       </c>
     </row>
     <row r="676" spans="1:15">
       <c r="A676" s="1">
-        <v>3442</v>
+        <v>3443</v>
       </c>
       <c r="B676" s="1" t="s">
         <v>127</v>
@@ -42833,16 +42826,16 @@
         <v>42720</v>
       </c>
       <c r="D676" s="1" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E676" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="F676" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="G676" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="H676" s="1" t="s">
         <v>5</v>
@@ -42851,7 +42844,7 @@
         <v>5</v>
       </c>
       <c r="J676" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="K676" s="1">
         <v>5</v>
@@ -42861,15 +42854,15 @@
         <v>5</v>
       </c>
       <c r="N676" s="1">
-        <v>105120</v>
+        <v>131040</v>
       </c>
       <c r="O676" s="1">
-        <v>118000</v>
+        <v>148000</v>
       </c>
     </row>
     <row r="677" spans="1:15">
       <c r="A677" s="1">
-        <v>3443</v>
+        <v>3444</v>
       </c>
       <c r="B677" s="1" t="s">
         <v>127</v>
@@ -42878,16 +42871,16 @@
         <v>42720</v>
       </c>
       <c r="D677" s="1" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E677" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="F677" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="G677" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="H677" s="1" t="s">
         <v>5</v>
@@ -42896,43 +42889,43 @@
         <v>5</v>
       </c>
       <c r="J677" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="K677" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L677" s="1"/>
       <c r="M677" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N677" s="1">
-        <v>131040</v>
+        <v>23800</v>
       </c>
       <c r="O677" s="1">
-        <v>148000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="678" spans="1:15">
       <c r="A678" s="1">
-        <v>3444</v>
+        <v>3445</v>
       </c>
       <c r="B678" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C678" s="2">
-        <v>42720</v>
+        <v>42357</v>
       </c>
       <c r="D678" s="1" t="s">
-        <v>1459</v>
+        <v>1472</v>
       </c>
       <c r="E678" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="F678" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="G678" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H678" s="1" t="s">
         <v>5</v>
@@ -42941,25 +42934,25 @@
         <v>5</v>
       </c>
       <c r="J678" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="K678" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L678" s="1"/>
       <c r="M678" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N678" s="1">
-        <v>23800</v>
+        <v>133940</v>
       </c>
       <c r="O678" s="1">
-        <v>26000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="679" spans="1:15">
       <c r="A679" s="1">
-        <v>3445</v>
+        <v>3446</v>
       </c>
       <c r="B679" s="1" t="s">
         <v>127</v>
@@ -42968,16 +42961,16 @@
         <v>42357</v>
       </c>
       <c r="D679" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="E679" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="F679" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="G679" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="H679" s="1" t="s">
         <v>5</v>
@@ -42986,7 +42979,7 @@
         <v>5</v>
       </c>
       <c r="J679" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="K679" s="1">
         <v>5</v>
@@ -42996,15 +42989,15 @@
         <v>5</v>
       </c>
       <c r="N679" s="1">
-        <v>133940</v>
+        <v>104340</v>
       </c>
       <c r="O679" s="1">
-        <v>144000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="680" spans="1:15">
       <c r="A680" s="1">
-        <v>3446</v>
+        <v>3447</v>
       </c>
       <c r="B680" s="1" t="s">
         <v>127</v>
@@ -43013,16 +43006,16 @@
         <v>42357</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="E680" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F680" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="G680" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="H680" s="1" t="s">
         <v>5</v>
@@ -43031,7 +43024,7 @@
         <v>5</v>
       </c>
       <c r="J680" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="K680" s="1">
         <v>5</v>
@@ -43041,15 +43034,15 @@
         <v>5</v>
       </c>
       <c r="N680" s="1">
-        <v>104340</v>
+        <v>126540</v>
       </c>
       <c r="O680" s="1">
-        <v>115000</v>
+        <v>137000</v>
       </c>
     </row>
     <row r="681" spans="1:15">
       <c r="A681" s="1">
-        <v>3447</v>
+        <v>3448</v>
       </c>
       <c r="B681" s="1" t="s">
         <v>127</v>
@@ -43058,16 +43051,16 @@
         <v>42357</v>
       </c>
       <c r="D681" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="E681" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="F681" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="G681" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="H681" s="1" t="s">
         <v>5</v>
@@ -43076,7 +43069,7 @@
         <v>5</v>
       </c>
       <c r="J681" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="K681" s="1">
         <v>5</v>
@@ -43086,15 +43079,15 @@
         <v>5</v>
       </c>
       <c r="N681" s="1">
-        <v>126540</v>
+        <v>104340</v>
       </c>
       <c r="O681" s="1">
-        <v>137000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="682" spans="1:15">
       <c r="A682" s="1">
-        <v>3448</v>
+        <v>3449</v>
       </c>
       <c r="B682" s="1" t="s">
         <v>127</v>
@@ -43103,16 +43096,16 @@
         <v>42357</v>
       </c>
       <c r="D682" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="E682" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="F682" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="G682" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="H682" s="1" t="s">
         <v>5</v>
@@ -43121,43 +43114,43 @@
         <v>5</v>
       </c>
       <c r="J682" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="K682" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L682" s="1"/>
       <c r="M682" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N682" s="1">
-        <v>104340</v>
+        <v>187220</v>
       </c>
       <c r="O682" s="1">
-        <v>115000</v>
+        <v>206000</v>
       </c>
     </row>
     <row r="683" spans="1:15">
       <c r="A683" s="1">
-        <v>3449</v>
+        <v>3450</v>
       </c>
       <c r="B683" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C683" s="2">
-        <v>42357</v>
+        <v>42375</v>
       </c>
       <c r="D683" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="E683" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="F683" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="G683" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="H683" s="1" t="s">
         <v>5</v>
@@ -43166,7 +43159,7 @@
         <v>5</v>
       </c>
       <c r="J683" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="K683" s="1">
         <v>1</v>
@@ -43176,15 +43169,15 @@
         <v>1</v>
       </c>
       <c r="N683" s="1">
-        <v>187220</v>
+        <v>118400</v>
       </c>
       <c r="O683" s="1">
-        <v>206000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="684" spans="1:15">
       <c r="A684" s="1">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="B684" s="1" t="s">
         <v>127</v>
@@ -43193,16 +43186,16 @@
         <v>42375</v>
       </c>
       <c r="D684" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="E684" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="F684" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="G684" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="H684" s="1" t="s">
         <v>5</v>
@@ -43211,7 +43204,7 @@
         <v>5</v>
       </c>
       <c r="J684" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="K684" s="1">
         <v>1</v>
@@ -43221,15 +43214,15 @@
         <v>1</v>
       </c>
       <c r="N684" s="1">
-        <v>118400</v>
+        <v>142080</v>
       </c>
       <c r="O684" s="1">
-        <v>130000</v>
+        <v>156000</v>
       </c>
     </row>
     <row r="685" spans="1:15">
       <c r="A685" s="1">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="B685" s="1" t="s">
         <v>127</v>
@@ -43238,16 +43231,16 @@
         <v>42375</v>
       </c>
       <c r="D685" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="E685" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="F685" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="G685" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="H685" s="1" t="s">
         <v>5</v>
@@ -43256,7 +43249,7 @@
         <v>5</v>
       </c>
       <c r="J685" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="K685" s="1">
         <v>1</v>
@@ -43266,33 +43259,33 @@
         <v>1</v>
       </c>
       <c r="N685" s="1">
-        <v>142080</v>
+        <v>170200</v>
       </c>
       <c r="O685" s="1">
-        <v>156000</v>
+        <v>187000</v>
       </c>
     </row>
     <row r="686" spans="1:15">
       <c r="A686" s="1">
-        <v>3452</v>
+        <v>3453</v>
       </c>
       <c r="B686" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C686" s="2">
-        <v>42375</v>
+        <v>42464</v>
       </c>
       <c r="D686" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="E686" s="1" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="F686" s="1" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="G686" s="1" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="H686" s="1" t="s">
         <v>5</v>
@@ -43301,7 +43294,7 @@
         <v>5</v>
       </c>
       <c r="J686" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="K686" s="1">
         <v>1</v>
@@ -43311,15 +43304,15 @@
         <v>1</v>
       </c>
       <c r="N686" s="1">
-        <v>170200</v>
+        <v>289340</v>
       </c>
       <c r="O686" s="1">
-        <v>187000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="687" spans="1:15">
       <c r="A687" s="1">
-        <v>3453</v>
+        <v>3454</v>
       </c>
       <c r="B687" s="1" t="s">
         <v>127</v>
@@ -43328,16 +43321,16 @@
         <v>42464</v>
       </c>
       <c r="D687" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E687" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="F687" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="G687" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="H687" s="1" t="s">
         <v>5</v>
@@ -43346,7 +43339,7 @@
         <v>5</v>
       </c>
       <c r="J687" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="K687" s="1">
         <v>1</v>
@@ -43356,105 +43349,103 @@
         <v>1</v>
       </c>
       <c r="N687" s="1">
-        <v>289340</v>
+        <v>325600</v>
       </c>
       <c r="O687" s="1">
-        <v>350000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="688" spans="1:15">
       <c r="A688" s="1">
-        <v>3454</v>
+        <v>2888</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="C688" s="2">
-        <v>42464</v>
+        <v>41803</v>
       </c>
       <c r="D688" s="1" t="s">
-        <v>1489</v>
+        <v>374</v>
       </c>
       <c r="E688" s="1" t="s">
-        <v>1492</v>
+        <v>419</v>
       </c>
       <c r="F688" s="1" t="s">
-        <v>1492</v>
+        <v>419</v>
       </c>
       <c r="G688" s="1" t="s">
         <v>1493</v>
       </c>
-      <c r="H688" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I688" s="1" t="s">
-        <v>5</v>
+      <c r="H688" s="1">
+        <v>0</v>
+      </c>
+      <c r="I688" s="1">
+        <v>0</v>
       </c>
       <c r="J688" s="1" t="s">
-        <v>1462</v>
+        <v>20</v>
       </c>
       <c r="K688" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L688" s="1"/>
       <c r="M688" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N688" s="1">
-        <v>325600</v>
+        <v>23000</v>
       </c>
       <c r="O688" s="1">
-        <v>400000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="689" spans="1:16">
-      <c r="A689" s="1">
-        <v>2888</v>
-      </c>
-      <c r="B689" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C689" s="2">
-        <v>41803</v>
-      </c>
-      <c r="D689" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E689" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F689" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="G689" s="1" t="s">
+      <c r="A689" s="5">
+        <v>3065</v>
+      </c>
+      <c r="B689" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C689" s="6">
+        <v>42027</v>
+      </c>
+      <c r="D689" s="5" t="s">
         <v>1494</v>
       </c>
-      <c r="H689" s="1">
-        <v>0</v>
-      </c>
-      <c r="I689" s="1">
-        <v>0</v>
-      </c>
-      <c r="J689" s="1" t="s">
+      <c r="E689" s="5" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F689" s="5" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G689" s="28" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H689" s="22"/>
+      <c r="I689" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J689" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K689" s="1">
-        <v>3</v>
-      </c>
-      <c r="L689" s="1"/>
-      <c r="M689" s="1">
-        <v>3</v>
-      </c>
-      <c r="N689" s="1">
-        <v>23000</v>
-      </c>
-      <c r="O689" s="1">
-        <v>30000</v>
+      <c r="K689" s="5">
+        <v>10</v>
+      </c>
+      <c r="L689" s="19"/>
+      <c r="M689" s="5">
+        <v>10</v>
+      </c>
+      <c r="N689" s="5">
+        <v>12500</v>
+      </c>
+      <c r="O689" s="5">
+        <v>17000</v>
       </c>
     </row>
     <row r="690" spans="1:16">
       <c r="A690" s="5">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="B690" s="5" t="s">
         <v>2</v>
@@ -43463,16 +43454,16 @@
         <v>42027</v>
       </c>
       <c r="D690" s="5" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E690" s="5" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="F690" s="5" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="G690" s="28" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="H690" s="22"/>
       <c r="I690" s="5" t="s">
@@ -43489,15 +43480,15 @@
         <v>10</v>
       </c>
       <c r="N690" s="5">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O690" s="5">
-        <v>17000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="691" spans="1:16">
       <c r="A691" s="5">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="B691" s="5" t="s">
         <v>2</v>
@@ -43506,16 +43497,16 @@
         <v>42027</v>
       </c>
       <c r="D691" s="5" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E691" s="5" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="F691" s="5" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="G691" s="28" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H691" s="22"/>
       <c r="I691" s="5" t="s">
@@ -43525,22 +43516,22 @@
         <v>20</v>
       </c>
       <c r="K691" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L691" s="19"/>
       <c r="M691" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N691" s="5">
-        <v>15000</v>
+        <v>52000</v>
       </c>
       <c r="O691" s="5">
-        <v>25000</v>
+        <v>71000</v>
       </c>
     </row>
     <row r="692" spans="1:16">
       <c r="A692" s="5">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="B692" s="5" t="s">
         <v>2</v>
@@ -43549,16 +43540,16 @@
         <v>42027</v>
       </c>
       <c r="D692" s="5" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E692" s="5" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="F692" s="5" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="G692" s="28" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="H692" s="22"/>
       <c r="I692" s="5" t="s">
@@ -43568,22 +43559,22 @@
         <v>20</v>
       </c>
       <c r="K692" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L692" s="19"/>
       <c r="M692" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N692" s="5">
-        <v>52000</v>
+        <v>9500</v>
       </c>
       <c r="O692" s="5">
-        <v>71000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="693" spans="1:16">
       <c r="A693" s="5">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="B693" s="5" t="s">
         <v>2</v>
@@ -43592,16 +43583,16 @@
         <v>42027</v>
       </c>
       <c r="D693" s="5" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E693" s="5" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="F693" s="5" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="G693" s="28" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="H693" s="22"/>
       <c r="I693" s="5" t="s">
@@ -43611,22 +43602,22 @@
         <v>20</v>
       </c>
       <c r="K693" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L693" s="19"/>
       <c r="M693" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N693" s="5">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="O693" s="5">
-        <v>12000</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="694" spans="1:16">
       <c r="A694" s="5">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="B694" s="5" t="s">
         <v>2</v>
@@ -43635,16 +43626,16 @@
         <v>42027</v>
       </c>
       <c r="D694" s="5" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E694" s="5" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="F694" s="5" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="G694" s="28" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="H694" s="22"/>
       <c r="I694" s="5" t="s">
@@ -43661,15 +43652,15 @@
         <v>5</v>
       </c>
       <c r="N694" s="5">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O694" s="5">
-        <v>19000</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="695" spans="1:16">
       <c r="A695" s="5">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="B695" s="5" t="s">
         <v>2</v>
@@ -43678,16 +43669,16 @@
         <v>42027</v>
       </c>
       <c r="D695" s="5" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E695" s="5" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="F695" s="5" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="G695" s="28" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="H695" s="22"/>
       <c r="I695" s="5" t="s">
@@ -43697,22 +43688,22 @@
         <v>20</v>
       </c>
       <c r="K695" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L695" s="19"/>
       <c r="M695" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N695" s="5">
-        <v>20000</v>
+        <v>46000</v>
       </c>
       <c r="O695" s="5">
-        <v>27000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="696" spans="1:16">
       <c r="A696" s="5">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="B696" s="5" t="s">
         <v>2</v>
@@ -43721,16 +43712,16 @@
         <v>42027</v>
       </c>
       <c r="D696" s="5" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E696" s="5" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="F696" s="5" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="G696" s="28" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="H696" s="22"/>
       <c r="I696" s="5" t="s">
@@ -43740,22 +43731,22 @@
         <v>20</v>
       </c>
       <c r="K696" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L696" s="19"/>
       <c r="M696" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N696" s="5">
-        <v>46000</v>
+        <v>55000</v>
       </c>
       <c r="O696" s="5">
-        <v>60000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="697" spans="1:16">
       <c r="A697" s="5">
-        <v>3072</v>
+        <v>3073</v>
       </c>
       <c r="B697" s="5" t="s">
         <v>2</v>
@@ -43764,16 +43755,16 @@
         <v>42027</v>
       </c>
       <c r="D697" s="5" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E697" s="5" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="F697" s="5" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="G697" s="28" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="H697" s="22"/>
       <c r="I697" s="5" t="s">
@@ -43783,65 +43774,71 @@
         <v>20</v>
       </c>
       <c r="K697" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L697" s="19"/>
       <c r="M697" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N697" s="5">
-        <v>55000</v>
+        <v>32000</v>
       </c>
       <c r="O697" s="5">
-        <v>72000</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="698" spans="1:16">
-      <c r="A698" s="5">
-        <v>3073</v>
-      </c>
-      <c r="B698" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C698" s="6">
-        <v>42027</v>
-      </c>
-      <c r="D698" s="5" t="s">
-        <v>1495</v>
-      </c>
-      <c r="E698" s="5" t="s">
-        <v>1512</v>
-      </c>
-      <c r="F698" s="5" t="s">
-        <v>1512</v>
-      </c>
-      <c r="G698" s="28" t="s">
+      <c r="A698" s="1">
+        <v>3121</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C698" s="2">
+        <v>41697</v>
+      </c>
+      <c r="D698" s="1" t="s">
         <v>1513</v>
       </c>
-      <c r="H698" s="22"/>
-      <c r="I698" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J698" s="5" t="s">
+      <c r="E698" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F698" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="G698" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H698" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I698" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="J698" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K698" s="5">
-        <v>5</v>
-      </c>
-      <c r="L698" s="19"/>
-      <c r="M698" s="5">
-        <v>5</v>
-      </c>
-      <c r="N698" s="5">
-        <v>32000</v>
-      </c>
-      <c r="O698" s="5">
+      <c r="K698" s="1">
+        <v>2</v>
+      </c>
+      <c r="L698" s="1"/>
+      <c r="M698" s="1">
+        <v>2</v>
+      </c>
+      <c r="N698" s="1">
+        <v>30000</v>
+      </c>
+      <c r="O698" s="1">
         <v>42000</v>
+      </c>
+      <c r="P698" s="12" t="str">
+        <f t="shared" ref="P698:P699" si="8">CONCATENATE(TRIM(G698)," ",TRIM(H698)," ",TRIM(I698))</f>
+        <v>VISOR VIXION NEW POLOS VIXION NEW POLOS</v>
       </c>
     </row>
     <row r="699" spans="1:16">
       <c r="A699" s="1">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="B699" s="1" t="s">
         <v>2</v>
@@ -43850,22 +43847,22 @@
         <v>41697</v>
       </c>
       <c r="D699" s="1" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E699" s="1" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="F699" s="1" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="G699" s="1" t="s">
         <v>1644</v>
       </c>
       <c r="H699" s="1" t="s">
-        <v>1516</v>
+        <v>675</v>
       </c>
       <c r="I699" s="1" t="s">
-        <v>1517</v>
+        <v>65</v>
       </c>
       <c r="J699" s="1" t="s">
         <v>20</v>
@@ -43878,68 +43875,64 @@
         <v>2</v>
       </c>
       <c r="N699" s="1">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O699" s="1">
-        <v>42000</v>
+        <v>49000</v>
       </c>
       <c r="P699" s="12" t="str">
-        <f t="shared" ref="P699:P700" si="8">CONCATENATE(TRIM(G699)," ",TRIM(H699)," ",TRIM(I699))</f>
-        <v>VISOR VIXION NEW POLOS VIXION NEW POLOS</v>
+        <f t="shared" si="8"/>
+        <v>JALU STANG CNC EMAS DBS EMAS DBS</v>
       </c>
     </row>
     <row r="700" spans="1:16">
       <c r="A700" s="1">
-        <v>3122</v>
+        <v>3138</v>
       </c>
       <c r="B700" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C700" s="2">
-        <v>41697</v>
+        <v>42034</v>
       </c>
       <c r="D700" s="1" t="s">
-        <v>1514</v>
+        <v>1518</v>
       </c>
       <c r="E700" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="F700" s="1" t="s">
-        <v>1518</v>
-      </c>
-      <c r="G700" s="1" t="s">
-        <v>1645</v>
+        <v>1519</v>
+      </c>
+      <c r="G700" s="29" t="s">
+        <v>1520</v>
       </c>
       <c r="H700" s="1" t="s">
-        <v>675</v>
+        <v>5</v>
       </c>
       <c r="I700" s="1" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="J700" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K700" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L700" s="1"/>
       <c r="M700" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N700" s="1">
-        <v>35000</v>
+        <v>47000</v>
       </c>
       <c r="O700" s="1">
-        <v>49000</v>
-      </c>
-      <c r="P700" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v>JALU STANG CNC EMAS DBS EMAS DBS</v>
+        <v>64000</v>
       </c>
     </row>
     <row r="701" spans="1:16">
       <c r="A701" s="1">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="B701" s="1" t="s">
         <v>2</v>
@@ -43948,16 +43941,16 @@
         <v>42034</v>
       </c>
       <c r="D701" s="1" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E701" s="1" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="F701" s="1" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="G701" s="29" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="H701" s="1" t="s">
         <v>5</v>
@@ -43969,22 +43962,22 @@
         <v>20</v>
       </c>
       <c r="K701" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L701" s="1"/>
       <c r="M701" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N701" s="1">
-        <v>47000</v>
+        <v>13000</v>
       </c>
       <c r="O701" s="1">
-        <v>64000</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="702" spans="1:16">
       <c r="A702" s="1">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="B702" s="1" t="s">
         <v>2</v>
@@ -43993,16 +43986,16 @@
         <v>42034</v>
       </c>
       <c r="D702" s="1" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E702" s="1" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="F702" s="1" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="G702" s="29" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="H702" s="1" t="s">
         <v>5</v>
@@ -44014,22 +44007,22 @@
         <v>20</v>
       </c>
       <c r="K702" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L702" s="1"/>
       <c r="M702" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N702" s="1">
-        <v>13000</v>
+        <v>55000</v>
       </c>
       <c r="O702" s="1">
-        <v>19000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="703" spans="1:16">
       <c r="A703" s="1">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="B703" s="1" t="s">
         <v>2</v>
@@ -44038,16 +44031,16 @@
         <v>42034</v>
       </c>
       <c r="D703" s="1" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E703" s="1" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="F703" s="1" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="G703" s="29" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="H703" s="1" t="s">
         <v>5</v>
@@ -44066,15 +44059,15 @@
         <v>2</v>
       </c>
       <c r="N703" s="1">
-        <v>55000</v>
+        <v>45000</v>
       </c>
       <c r="O703" s="1">
-        <v>75000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="704" spans="1:16">
       <c r="A704" s="1">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="B704" s="1" t="s">
         <v>2</v>
@@ -44083,16 +44076,16 @@
         <v>42034</v>
       </c>
       <c r="D704" s="1" t="s">
-        <v>1519</v>
+        <v>1527</v>
       </c>
       <c r="E704" s="1" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="F704" s="1" t="s">
-        <v>1526</v>
-      </c>
-      <c r="G704" s="29" t="s">
-        <v>1527</v>
+        <v>1528</v>
+      </c>
+      <c r="G704" s="23" t="s">
+        <v>1529</v>
       </c>
       <c r="H704" s="1" t="s">
         <v>5</v>
@@ -44104,41 +44097,39 @@
         <v>20</v>
       </c>
       <c r="K704" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L704" s="1"/>
       <c r="M704" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N704" s="1">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="O704" s="1">
-        <v>65000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="705" spans="1:15">
       <c r="A705" s="1">
-        <v>3142</v>
+        <v>3549</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C705" s="2">
-        <v>42034</v>
+        <v>42470</v>
       </c>
       <c r="D705" s="1" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="E705" s="1" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="F705" s="1" t="s">
-        <v>1529</v>
-      </c>
-      <c r="G705" s="23" t="s">
-        <v>1530</v>
-      </c>
+        <v>1531</v>
+      </c>
+      <c r="G705" s="1"/>
       <c r="H705" s="1" t="s">
         <v>5</v>
       </c>
@@ -44146,87 +44137,87 @@
         <v>5</v>
       </c>
       <c r="J705" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K705" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L705" s="1"/>
       <c r="M705" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N705" s="1">
-        <v>22500</v>
+        <v>0</v>
       </c>
       <c r="O705" s="1">
-        <v>31000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:15">
-      <c r="A706" s="1">
-        <v>3549</v>
-      </c>
-      <c r="B706" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C706" s="2">
-        <v>42470</v>
-      </c>
-      <c r="D706" s="1" t="s">
-        <v>1531</v>
-      </c>
-      <c r="E706" s="1" t="s">
+      <c r="A706" s="5">
+        <v>4244</v>
+      </c>
+      <c r="B706" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C706" s="6">
+        <v>42006</v>
+      </c>
+      <c r="D706" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="E706" s="5" t="s">
         <v>1532</v>
       </c>
-      <c r="F706" s="1" t="s">
+      <c r="F706" s="5" t="s">
         <v>1532</v>
       </c>
-      <c r="G706" s="1"/>
-      <c r="H706" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I706" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J706" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K706" s="1">
-        <v>0</v>
-      </c>
-      <c r="L706" s="1"/>
-      <c r="M706" s="1">
-        <v>0</v>
-      </c>
-      <c r="N706" s="1">
-        <v>0</v>
-      </c>
-      <c r="O706" s="1">
-        <v>0</v>
+      <c r="G706" s="5" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H706" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I706" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J706" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K706" s="5">
+        <v>5</v>
+      </c>
+      <c r="L706" s="5"/>
+      <c r="M706" s="5">
+        <v>5</v>
+      </c>
+      <c r="N706" s="5">
+        <v>37500</v>
+      </c>
+      <c r="O706" s="5">
+        <v>52000</v>
       </c>
     </row>
     <row r="707" spans="1:15">
       <c r="A707" s="5">
-        <v>4244</v>
+        <v>3609</v>
       </c>
       <c r="B707" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C707" s="6">
-        <v>42006</v>
+        <v>42414</v>
       </c>
       <c r="D707" s="5" t="s">
-        <v>738</v>
+        <v>1534</v>
       </c>
       <c r="E707" s="5" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="F707" s="5" t="s">
-        <v>1533</v>
-      </c>
-      <c r="G707" s="5" t="s">
-        <v>1534</v>
-      </c>
+        <v>1535</v>
+      </c>
+      <c r="G707" s="5"/>
       <c r="H707" s="5" t="s">
         <v>5</v>
       </c>
@@ -44234,77 +44225,79 @@
         <v>5</v>
       </c>
       <c r="J707" s="5" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="K707" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L707" s="5"/>
       <c r="M707" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N707" s="5">
-        <v>37500</v>
+        <v>65000</v>
       </c>
       <c r="O707" s="5">
-        <v>52000</v>
+        <v>91000</v>
       </c>
     </row>
     <row r="708" spans="1:15">
-      <c r="A708" s="5">
-        <v>3609</v>
-      </c>
-      <c r="B708" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C708" s="6">
-        <v>42414</v>
-      </c>
-      <c r="D708" s="5" t="s">
-        <v>1535</v>
-      </c>
-      <c r="E708" s="5" t="s">
+      <c r="A708" s="1">
+        <v>4484</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C708" s="2">
+        <v>41641</v>
+      </c>
+      <c r="D708" s="1">
+        <v>385</v>
+      </c>
+      <c r="E708" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="F708" s="5" t="s">
+      <c r="F708" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="G708" s="5"/>
-      <c r="H708" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I708" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J708" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K708" s="5">
-        <v>2</v>
-      </c>
-      <c r="L708" s="5"/>
-      <c r="M708" s="5">
-        <v>2</v>
-      </c>
-      <c r="N708" s="5">
-        <v>65000</v>
-      </c>
-      <c r="O708" s="5">
-        <v>91000</v>
+      <c r="G708" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H708" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I708" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J708" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K708" s="1">
+        <v>1</v>
+      </c>
+      <c r="L708" s="1"/>
+      <c r="M708" s="1">
+        <v>1</v>
+      </c>
+      <c r="N708" s="1">
+        <v>22500</v>
+      </c>
+      <c r="O708" s="1">
+        <v>22500</v>
       </c>
     </row>
     <row r="709" spans="1:15">
       <c r="A709" s="1">
-        <v>4484</v>
+        <v>1456</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>0</v>
+        <v>1379</v>
       </c>
       <c r="C709" s="2">
-        <v>41641</v>
+        <v>43073</v>
       </c>
       <c r="D709" s="1">
-        <v>385</v>
+        <v>3361</v>
       </c>
       <c r="E709" s="1" t="s">
         <v>1537</v>
@@ -44313,37 +44306,37 @@
         <v>1537</v>
       </c>
       <c r="G709" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H709" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I709" s="1" t="s">
-        <v>5</v>
+        <v>1538</v>
+      </c>
+      <c r="H709" s="1">
+        <v>0</v>
+      </c>
+      <c r="I709" s="1">
+        <v>0</v>
       </c>
       <c r="J709" s="1" t="s">
-        <v>23</v>
+        <v>1385</v>
       </c>
       <c r="K709" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L709" s="1"/>
       <c r="M709" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N709" s="1">
-        <v>22500</v>
+        <v>32500</v>
       </c>
       <c r="O709" s="1">
-        <v>22500</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="710" spans="1:15">
       <c r="A710" s="1">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C710" s="2">
         <v>43073</v>
@@ -44352,13 +44345,13 @@
         <v>3361</v>
       </c>
       <c r="E710" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="F710" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="G710" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="H710" s="1">
         <v>0</v>
@@ -44367,7 +44360,7 @@
         <v>0</v>
       </c>
       <c r="J710" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K710" s="1">
         <v>12</v>
@@ -44377,18 +44370,18 @@
         <v>12</v>
       </c>
       <c r="N710" s="1">
-        <v>32500</v>
+        <v>37500</v>
       </c>
       <c r="O710" s="1">
-        <v>38000</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="711" spans="1:15">
       <c r="A711" s="1">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C711" s="2">
         <v>43073</v>
@@ -44397,13 +44390,13 @@
         <v>3361</v>
       </c>
       <c r="E711" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="F711" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="G711" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="H711" s="1">
         <v>0</v>
@@ -44412,79 +44405,79 @@
         <v>0</v>
       </c>
       <c r="J711" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K711" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L711" s="1"/>
       <c r="M711" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N711" s="1">
-        <v>37500</v>
+        <v>38000</v>
       </c>
       <c r="O711" s="1">
-        <v>44000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="712" spans="1:15">
-      <c r="A712" s="1">
-        <v>1458</v>
-      </c>
-      <c r="B712" s="1" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C712" s="2">
-        <v>43073</v>
-      </c>
-      <c r="D712" s="1">
-        <v>3361</v>
-      </c>
-      <c r="E712" s="1" t="s">
-        <v>1542</v>
-      </c>
-      <c r="F712" s="1" t="s">
-        <v>1542</v>
-      </c>
-      <c r="G712" s="1" t="s">
+      <c r="A712" s="5">
+        <v>1459</v>
+      </c>
+      <c r="B712" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C712" s="6">
+        <v>42989</v>
+      </c>
+      <c r="D712" s="5">
+        <v>2574</v>
+      </c>
+      <c r="E712" s="5" t="s">
         <v>1543</v>
       </c>
-      <c r="H712" s="1">
-        <v>0</v>
-      </c>
-      <c r="I712" s="1">
-        <v>0</v>
-      </c>
-      <c r="J712" s="1" t="s">
-        <v>1386</v>
-      </c>
-      <c r="K712" s="1">
+      <c r="F712" s="5" t="s">
+        <v>1543</v>
+      </c>
+      <c r="G712" s="5" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H712" s="5">
+        <v>0</v>
+      </c>
+      <c r="I712" s="5">
+        <v>0</v>
+      </c>
+      <c r="J712" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="K712" s="5">
         <v>6</v>
       </c>
-      <c r="L712" s="1"/>
-      <c r="M712" s="1">
+      <c r="L712" s="5"/>
+      <c r="M712" s="5">
         <v>6</v>
       </c>
-      <c r="N712" s="1">
-        <v>38000</v>
-      </c>
-      <c r="O712" s="1">
-        <v>45000</v>
+      <c r="N712" s="5">
+        <v>48500</v>
+      </c>
+      <c r="O712" s="5">
+        <v>55000</v>
       </c>
     </row>
     <row r="713" spans="1:15">
       <c r="A713" s="5">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="B713" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C713" s="6">
-        <v>42989</v>
+        <v>43143</v>
       </c>
       <c r="D713" s="5">
-        <v>2574</v>
+        <v>4037</v>
       </c>
       <c r="E713" s="5" t="s">
         <v>1544</v>
@@ -44493,7 +44486,7 @@
         <v>1544</v>
       </c>
       <c r="G713" s="5" t="s">
-        <v>1398</v>
+        <v>1545</v>
       </c>
       <c r="H713" s="5">
         <v>0</v>
@@ -44502,43 +44495,43 @@
         <v>0</v>
       </c>
       <c r="J713" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K713" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L713" s="5"/>
       <c r="M713" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N713" s="5">
-        <v>48500</v>
+        <v>40500</v>
       </c>
       <c r="O713" s="5">
-        <v>55000</v>
+        <v>49000</v>
       </c>
     </row>
     <row r="714" spans="1:15">
       <c r="A714" s="5">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B714" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C714" s="6">
-        <v>43143</v>
+        <v>43052</v>
       </c>
       <c r="D714" s="5">
-        <v>4037</v>
+        <v>3130</v>
       </c>
       <c r="E714" s="5" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="F714" s="5" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="G714" s="5" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="H714" s="5">
         <v>0</v>
@@ -44547,28 +44540,28 @@
         <v>0</v>
       </c>
       <c r="J714" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K714" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L714" s="5"/>
       <c r="M714" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N714" s="5">
-        <v>40500</v>
+        <v>32000</v>
       </c>
       <c r="O714" s="5">
-        <v>49000</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="715" spans="1:15">
       <c r="A715" s="5">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B715" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C715" s="6">
         <v>43052</v>
@@ -44577,13 +44570,13 @@
         <v>3130</v>
       </c>
       <c r="E715" s="5" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="F715" s="5" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="G715" s="5" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="H715" s="5">
         <v>0</v>
@@ -44592,7 +44585,7 @@
         <v>0</v>
       </c>
       <c r="J715" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K715" s="5">
         <v>12</v>
@@ -44602,63 +44595,63 @@
         <v>12</v>
       </c>
       <c r="N715" s="5">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="O715" s="5">
-        <v>38000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="716" spans="1:15">
       <c r="A716" s="5">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B716" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C716" s="6">
-        <v>43052</v>
+        <v>41865</v>
       </c>
       <c r="D716" s="5">
-        <v>3130</v>
+        <v>10111</v>
       </c>
       <c r="E716" s="5" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="F716" s="5" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="G716" s="5" t="s">
-        <v>1550</v>
-      </c>
-      <c r="H716" s="5">
-        <v>0</v>
-      </c>
-      <c r="I716" s="5">
-        <v>0</v>
+        <v>1551</v>
+      </c>
+      <c r="H716" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I716" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="J716" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K716" s="5">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L716" s="5"/>
       <c r="M716" s="5">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N716" s="5">
-        <v>29000</v>
+        <v>26188</v>
       </c>
       <c r="O716" s="5">
-        <v>35000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="717" spans="1:15">
       <c r="A717" s="5">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B717" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C717" s="6">
         <v>41865</v>
@@ -44667,13 +44660,13 @@
         <v>10111</v>
       </c>
       <c r="E717" s="5" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F717" s="5" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="G717" s="5" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="H717" s="5" t="s">
         <v>5</v>
@@ -44682,28 +44675,28 @@
         <v>5</v>
       </c>
       <c r="J717" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K717" s="5">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L717" s="5"/>
       <c r="M717" s="5">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N717" s="5">
-        <v>26188</v>
+        <v>28615</v>
       </c>
       <c r="O717" s="5">
-        <v>31000</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="718" spans="1:15">
       <c r="A718" s="5">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B718" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C718" s="6">
         <v>41865</v>
@@ -44712,13 +44705,13 @@
         <v>10111</v>
       </c>
       <c r="E718" s="5" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="F718" s="5" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="G718" s="5" t="s">
-        <v>1554</v>
+        <v>1397</v>
       </c>
       <c r="H718" s="5" t="s">
         <v>5</v>
@@ -44727,28 +44720,28 @@
         <v>5</v>
       </c>
       <c r="J718" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K718" s="5">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L718" s="5"/>
       <c r="M718" s="5">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N718" s="5">
-        <v>28615</v>
+        <v>42633</v>
       </c>
       <c r="O718" s="5">
-        <v>34000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="719" spans="1:15">
       <c r="A719" s="5">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B719" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C719" s="6">
         <v>41865</v>
@@ -44763,7 +44756,7 @@
         <v>1555</v>
       </c>
       <c r="G719" s="5" t="s">
-        <v>1398</v>
+        <v>1556</v>
       </c>
       <c r="H719" s="5" t="s">
         <v>5</v>
@@ -44772,43 +44765,43 @@
         <v>5</v>
       </c>
       <c r="J719" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K719" s="5">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L719" s="5"/>
       <c r="M719" s="5">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="N719" s="5">
-        <v>42633</v>
+        <v>26500</v>
       </c>
       <c r="O719" s="5">
-        <v>50000</v>
+        <v>33500</v>
       </c>
     </row>
     <row r="720" spans="1:15">
       <c r="A720" s="5">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="B720" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C720" s="6">
-        <v>41865</v>
+        <v>41626</v>
       </c>
       <c r="D720" s="5">
-        <v>10111</v>
+        <v>8137</v>
       </c>
       <c r="E720" s="5" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="F720" s="5" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="G720" s="5" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="H720" s="5" t="s">
         <v>5</v>
@@ -44817,7 +44810,7 @@
         <v>5</v>
       </c>
       <c r="J720" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K720" s="5">
         <v>24</v>
@@ -44827,18 +44820,18 @@
         <v>24</v>
       </c>
       <c r="N720" s="5">
-        <v>26500</v>
+        <v>22750</v>
       </c>
       <c r="O720" s="5">
-        <v>33500</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="721" spans="1:15">
       <c r="A721" s="5">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B721" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C721" s="6">
         <v>41626</v>
@@ -44853,7 +44846,7 @@
         <v>1558</v>
       </c>
       <c r="G721" s="5" t="s">
-        <v>1552</v>
+        <v>1395</v>
       </c>
       <c r="H721" s="5" t="s">
         <v>5</v>
@@ -44862,28 +44855,28 @@
         <v>5</v>
       </c>
       <c r="J721" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K721" s="5">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L721" s="5"/>
       <c r="M721" s="5">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N721" s="5">
-        <v>22750</v>
+        <v>30100</v>
       </c>
       <c r="O721" s="5">
-        <v>29000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="722" spans="1:15">
       <c r="A722" s="5">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B722" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C722" s="6">
         <v>41626</v>
@@ -44898,7 +44891,7 @@
         <v>1559</v>
       </c>
       <c r="G722" s="5" t="s">
-        <v>1396</v>
+        <v>1560</v>
       </c>
       <c r="H722" s="5" t="s">
         <v>5</v>
@@ -44907,28 +44900,28 @@
         <v>5</v>
       </c>
       <c r="J722" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K722" s="5">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L722" s="5"/>
       <c r="M722" s="5">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N722" s="5">
-        <v>30100</v>
+        <v>33100</v>
       </c>
       <c r="O722" s="5">
-        <v>36000</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="723" spans="1:15">
       <c r="A723" s="5">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B723" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C723" s="6">
         <v>41626</v>
@@ -44937,13 +44930,13 @@
         <v>8137</v>
       </c>
       <c r="E723" s="5" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="F723" s="5" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="G723" s="5" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="H723" s="5" t="s">
         <v>5</v>
@@ -44952,28 +44945,28 @@
         <v>5</v>
       </c>
       <c r="J723" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K723" s="5">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L723" s="5"/>
       <c r="M723" s="5">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="N723" s="5">
-        <v>33100</v>
+        <v>28500</v>
       </c>
       <c r="O723" s="5">
-        <v>39000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="724" spans="1:15">
       <c r="A724" s="5">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B724" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C724" s="6">
         <v>41626</v>
@@ -44982,13 +44975,13 @@
         <v>8137</v>
       </c>
       <c r="E724" s="5" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="F724" s="5" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="G724" s="5" t="s">
-        <v>1563</v>
+        <v>1389</v>
       </c>
       <c r="H724" s="5" t="s">
         <v>5</v>
@@ -44997,7 +44990,7 @@
         <v>5</v>
       </c>
       <c r="J724" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K724" s="5">
         <v>24</v>
@@ -45007,7 +45000,7 @@
         <v>24</v>
       </c>
       <c r="N724" s="5">
-        <v>28500</v>
+        <v>27600</v>
       </c>
       <c r="O724" s="5">
         <v>35000</v>
@@ -45015,16 +45008,16 @@
     </row>
     <row r="725" spans="1:15">
       <c r="A725" s="5">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B725" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C725" s="6">
-        <v>41626</v>
+        <v>41661</v>
       </c>
       <c r="D725" s="5">
-        <v>8137</v>
+        <v>8417</v>
       </c>
       <c r="E725" s="5" t="s">
         <v>1564</v>
@@ -45033,7 +45026,7 @@
         <v>1564</v>
       </c>
       <c r="G725" s="5" t="s">
-        <v>1390</v>
+        <v>1565</v>
       </c>
       <c r="H725" s="5" t="s">
         <v>5</v>
@@ -45042,28 +45035,28 @@
         <v>5</v>
       </c>
       <c r="J725" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K725" s="5">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L725" s="5"/>
       <c r="M725" s="5">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N725" s="5">
-        <v>27600</v>
+        <v>27300</v>
       </c>
       <c r="O725" s="5">
-        <v>35000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="726" spans="1:15">
       <c r="A726" s="5">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B726" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C726" s="6">
         <v>41661</v>
@@ -45072,13 +45065,13 @@
         <v>8417</v>
       </c>
       <c r="E726" s="5" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="F726" s="5" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="G726" s="5" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="H726" s="5" t="s">
         <v>5</v>
@@ -45087,7 +45080,7 @@
         <v>5</v>
       </c>
       <c r="J726" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K726" s="5">
         <v>12</v>
@@ -45097,18 +45090,18 @@
         <v>12</v>
       </c>
       <c r="N726" s="5">
-        <v>27300</v>
+        <v>29600</v>
       </c>
       <c r="O726" s="5">
-        <v>32000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="727" spans="1:15">
       <c r="A727" s="5">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B727" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C727" s="6">
         <v>41661</v>
@@ -45117,13 +45110,13 @@
         <v>8417</v>
       </c>
       <c r="E727" s="5" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="F727" s="5" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="G727" s="5" t="s">
-        <v>1568</v>
+        <v>1542</v>
       </c>
       <c r="H727" s="5" t="s">
         <v>5</v>
@@ -45132,34 +45125,34 @@
         <v>5</v>
       </c>
       <c r="J727" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K727" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L727" s="5"/>
       <c r="M727" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N727" s="5">
-        <v>29600</v>
+        <v>33100</v>
       </c>
       <c r="O727" s="5">
-        <v>35000</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="728" spans="1:15">
       <c r="A728" s="5">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B728" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C728" s="6">
-        <v>41661</v>
+        <v>43122</v>
       </c>
       <c r="D728" s="5">
-        <v>8417</v>
+        <v>3834</v>
       </c>
       <c r="E728" s="5" t="s">
         <v>1569</v>
@@ -45168,52 +45161,52 @@
         <v>1569</v>
       </c>
       <c r="G728" s="5" t="s">
-        <v>1543</v>
-      </c>
-      <c r="H728" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I728" s="5" t="s">
-        <v>5</v>
+        <v>1570</v>
+      </c>
+      <c r="H728" s="5">
+        <v>0</v>
+      </c>
+      <c r="I728" s="5">
+        <v>0</v>
       </c>
       <c r="J728" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K728" s="5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L728" s="5"/>
       <c r="M728" s="5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N728" s="5">
-        <v>33100</v>
+        <v>36000</v>
       </c>
       <c r="O728" s="5">
-        <v>44000</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="729" spans="1:15">
       <c r="A729" s="5">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B729" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C729" s="6">
-        <v>43122</v>
+        <v>43154</v>
       </c>
       <c r="D729" s="5">
-        <v>3834</v>
+        <v>4139</v>
       </c>
       <c r="E729" s="5" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="F729" s="5" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="G729" s="5" t="s">
-        <v>1571</v>
+        <v>1397</v>
       </c>
       <c r="H729" s="5">
         <v>0</v>
@@ -45222,34 +45215,34 @@
         <v>0</v>
       </c>
       <c r="J729" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K729" s="5">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L729" s="5"/>
       <c r="M729" s="5">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N729" s="5">
-        <v>36000</v>
+        <v>46500</v>
       </c>
       <c r="O729" s="5">
-        <v>42000</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="730" spans="1:15">
       <c r="A730" s="5">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B730" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C730" s="6">
-        <v>43154</v>
+        <v>43183</v>
       </c>
       <c r="D730" s="5">
-        <v>4139</v>
+        <v>4456</v>
       </c>
       <c r="E730" s="5" t="s">
         <v>1572</v>
@@ -45258,7 +45251,7 @@
         <v>1572</v>
       </c>
       <c r="G730" s="5" t="s">
-        <v>1398</v>
+        <v>1573</v>
       </c>
       <c r="H730" s="5">
         <v>0</v>
@@ -45267,28 +45260,28 @@
         <v>0</v>
       </c>
       <c r="J730" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K730" s="5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L730" s="5"/>
       <c r="M730" s="5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N730" s="5">
-        <v>46500</v>
+        <v>29200</v>
       </c>
       <c r="O730" s="5">
-        <v>54000</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="731" spans="1:15">
       <c r="A731" s="5">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B731" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C731" s="6">
         <v>43183</v>
@@ -45297,13 +45290,13 @@
         <v>4456</v>
       </c>
       <c r="E731" s="5" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="F731" s="5" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="G731" s="5" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="H731" s="5">
         <v>0</v>
@@ -45312,7 +45305,7 @@
         <v>0</v>
       </c>
       <c r="J731" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K731" s="5">
         <v>12</v>
@@ -45322,18 +45315,18 @@
         <v>12</v>
       </c>
       <c r="N731" s="5">
-        <v>29200</v>
+        <v>34875</v>
       </c>
       <c r="O731" s="5">
-        <v>34000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="732" spans="1:15">
       <c r="A732" s="5">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B732" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C732" s="6">
         <v>43183</v>
@@ -45342,13 +45335,13 @@
         <v>4456</v>
       </c>
       <c r="E732" s="5" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="F732" s="5" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="G732" s="5" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="H732" s="5">
         <v>0</v>
@@ -45357,7 +45350,7 @@
         <v>0</v>
       </c>
       <c r="J732" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K732" s="5">
         <v>12</v>
@@ -45367,33 +45360,33 @@
         <v>12</v>
       </c>
       <c r="N732" s="5">
-        <v>34875</v>
+        <v>30000</v>
       </c>
       <c r="O732" s="5">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="733" spans="1:15">
       <c r="A733" s="5">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B733" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C733" s="6">
-        <v>43183</v>
+        <v>42857</v>
       </c>
       <c r="D733" s="5">
-        <v>4456</v>
-      </c>
-      <c r="E733" s="5" t="s">
-        <v>1577</v>
-      </c>
-      <c r="F733" s="5" t="s">
-        <v>1577</v>
+        <v>1181</v>
+      </c>
+      <c r="E733" s="7" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F733" s="7" t="s">
+        <v>1578</v>
       </c>
       <c r="G733" s="5" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="H733" s="5">
         <v>0</v>
@@ -45402,73 +45395,73 @@
         <v>0</v>
       </c>
       <c r="J733" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K733" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L733" s="5"/>
       <c r="M733" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N733" s="5">
-        <v>30000</v>
+        <v>42635</v>
       </c>
       <c r="O733" s="5">
-        <v>35000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="734" spans="1:15">
-      <c r="A734" s="5">
-        <v>1482</v>
-      </c>
-      <c r="B734" s="5" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C734" s="6">
+      <c r="A734" s="1">
+        <v>1483</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C734" s="2">
         <v>42857</v>
       </c>
       <c r="D734" s="5">
         <v>1181</v>
       </c>
       <c r="E734" s="7" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="F734" s="7" t="s">
-        <v>1579</v>
-      </c>
-      <c r="G734" s="5" t="s">
         <v>1580</v>
       </c>
-      <c r="H734" s="5">
-        <v>0</v>
-      </c>
-      <c r="I734" s="5">
-        <v>0</v>
-      </c>
-      <c r="J734" s="5" t="s">
-        <v>1386</v>
-      </c>
-      <c r="K734" s="5">
+      <c r="G734" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H734" s="1">
+        <v>0</v>
+      </c>
+      <c r="I734" s="1">
+        <v>0</v>
+      </c>
+      <c r="J734" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="K734" s="1">
         <v>6</v>
       </c>
-      <c r="L734" s="5"/>
-      <c r="M734" s="5">
+      <c r="L734" s="1"/>
+      <c r="M734" s="1">
         <v>6</v>
       </c>
-      <c r="N734" s="5">
-        <v>42635</v>
-      </c>
-      <c r="O734" s="5">
-        <v>48000</v>
+      <c r="N734" s="1">
+        <v>31600</v>
+      </c>
+      <c r="O734" s="1">
+        <v>37000</v>
       </c>
     </row>
     <row r="735" spans="1:15">
       <c r="A735" s="1">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C735" s="2">
         <v>42857</v>
@@ -45477,13 +45470,13 @@
         <v>1181</v>
       </c>
       <c r="E735" s="7" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="F735" s="7" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="G735" s="1" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="H735" s="1">
         <v>0</v>
@@ -45492,7 +45485,7 @@
         <v>0</v>
       </c>
       <c r="J735" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K735" s="1">
         <v>6</v>
@@ -45502,63 +45495,63 @@
         <v>6</v>
       </c>
       <c r="N735" s="1">
-        <v>31600</v>
+        <v>32000</v>
       </c>
       <c r="O735" s="1">
         <v>37000</v>
       </c>
     </row>
     <row r="736" spans="1:15">
-      <c r="A736" s="1">
-        <v>1484</v>
-      </c>
-      <c r="B736" s="1" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C736" s="2">
-        <v>42857</v>
+      <c r="A736" s="5">
+        <v>1491</v>
+      </c>
+      <c r="B736" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C736" s="6">
+        <v>42002</v>
       </c>
       <c r="D736" s="5">
-        <v>1181</v>
-      </c>
-      <c r="E736" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="F736" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="G736" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E736" s="5" t="s">
         <v>1584</v>
       </c>
-      <c r="H736" s="1">
-        <v>0</v>
-      </c>
-      <c r="I736" s="1">
-        <v>0</v>
-      </c>
-      <c r="J736" s="1" t="s">
-        <v>1386</v>
-      </c>
-      <c r="K736" s="1">
+      <c r="F736" s="5" t="s">
+        <v>1584</v>
+      </c>
+      <c r="G736" s="5" t="s">
+        <v>1585</v>
+      </c>
+      <c r="H736" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I736" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J736" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="K736" s="5">
         <v>6</v>
       </c>
-      <c r="L736" s="1"/>
-      <c r="M736" s="1">
+      <c r="L736" s="5"/>
+      <c r="M736" s="5">
         <v>6</v>
       </c>
-      <c r="N736" s="1">
-        <v>32000</v>
-      </c>
-      <c r="O736" s="1">
-        <v>37000</v>
+      <c r="N736" s="5">
+        <v>42634</v>
+      </c>
+      <c r="O736" s="5">
+        <v>50000</v>
       </c>
     </row>
     <row r="737" spans="1:15">
       <c r="A737" s="5">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B737" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C737" s="6">
         <v>42002</v>
@@ -45567,13 +45560,13 @@
         <v>1103</v>
       </c>
       <c r="E737" s="5" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="F737" s="5" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="G737" s="5" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="H737" s="5" t="s">
         <v>5</v>
@@ -45582,28 +45575,28 @@
         <v>5</v>
       </c>
       <c r="J737" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K737" s="5">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L737" s="5"/>
       <c r="M737" s="5">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="N737" s="5">
-        <v>42634</v>
+        <v>36100</v>
       </c>
       <c r="O737" s="5">
-        <v>50000</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="738" spans="1:15">
       <c r="A738" s="5">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B738" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C738" s="6">
         <v>42002</v>
@@ -45612,13 +45605,13 @@
         <v>1103</v>
       </c>
       <c r="E738" s="5" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="F738" s="5" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="G738" s="5" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="H738" s="5" t="s">
         <v>5</v>
@@ -45627,7 +45620,7 @@
         <v>5</v>
       </c>
       <c r="J738" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K738" s="5">
         <v>24</v>
@@ -45637,33 +45630,33 @@
         <v>24</v>
       </c>
       <c r="N738" s="5">
-        <v>36100</v>
+        <v>29400</v>
       </c>
       <c r="O738" s="5">
-        <v>42500</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="739" spans="1:15">
       <c r="A739" s="5">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B739" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C739" s="6">
-        <v>42002</v>
+        <v>41669</v>
       </c>
       <c r="D739" s="5">
-        <v>1103</v>
+        <v>8463</v>
       </c>
       <c r="E739" s="5" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="F739" s="5" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="G739" s="5" t="s">
-        <v>1590</v>
+        <v>1397</v>
       </c>
       <c r="H739" s="5" t="s">
         <v>5</v>
@@ -45672,34 +45665,34 @@
         <v>5</v>
       </c>
       <c r="J739" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K739" s="5">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L739" s="5"/>
       <c r="M739" s="5">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N739" s="5">
-        <v>29400</v>
+        <v>20600</v>
       </c>
       <c r="O739" s="5">
-        <v>37000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="740" spans="1:15">
       <c r="A740" s="5">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="B740" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C740" s="6">
-        <v>41669</v>
+        <v>41739</v>
       </c>
       <c r="D740" s="5">
-        <v>8463</v>
+        <v>8990</v>
       </c>
       <c r="E740" s="5" t="s">
         <v>1591</v>
@@ -45708,7 +45701,7 @@
         <v>1591</v>
       </c>
       <c r="G740" s="5" t="s">
-        <v>1398</v>
+        <v>1592</v>
       </c>
       <c r="H740" s="5" t="s">
         <v>5</v>
@@ -45717,43 +45710,43 @@
         <v>5</v>
       </c>
       <c r="J740" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K740" s="5">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L740" s="5"/>
       <c r="M740" s="5">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N740" s="5">
-        <v>20600</v>
+        <v>10417</v>
       </c>
       <c r="O740" s="5">
-        <v>50000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="741" spans="1:15">
       <c r="A741" s="5">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B741" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C741" s="6">
-        <v>41739</v>
+        <v>41765</v>
       </c>
       <c r="D741" s="5">
-        <v>8990</v>
+        <v>8726</v>
       </c>
       <c r="E741" s="5" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="F741" s="5" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="G741" s="5" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="H741" s="5" t="s">
         <v>5</v>
@@ -45762,7 +45755,7 @@
         <v>5</v>
       </c>
       <c r="J741" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K741" s="5">
         <v>24</v>
@@ -45772,33 +45765,33 @@
         <v>24</v>
       </c>
       <c r="N741" s="5">
-        <v>10417</v>
+        <v>29400</v>
       </c>
       <c r="O741" s="5">
-        <v>40000</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="742" spans="1:15">
       <c r="A742" s="5">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B742" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C742" s="6">
-        <v>41765</v>
+        <v>41800</v>
       </c>
       <c r="D742" s="5">
-        <v>8726</v>
+        <v>9501</v>
       </c>
       <c r="E742" s="5" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="F742" s="5" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="G742" s="5" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="H742" s="5" t="s">
         <v>5</v>
@@ -45807,7 +45800,7 @@
         <v>5</v>
       </c>
       <c r="J742" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K742" s="5">
         <v>24</v>
@@ -45817,7 +45810,7 @@
         <v>24</v>
       </c>
       <c r="N742" s="5">
-        <v>29400</v>
+        <v>29500</v>
       </c>
       <c r="O742" s="5">
         <v>37000</v>
@@ -45825,10 +45818,10 @@
     </row>
     <row r="743" spans="1:15">
       <c r="A743" s="5">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B743" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C743" s="6">
         <v>41800</v>
@@ -45837,13 +45830,13 @@
         <v>9501</v>
       </c>
       <c r="E743" s="5" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F743" s="5" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="G743" s="5" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="H743" s="5" t="s">
         <v>5</v>
@@ -45852,7 +45845,7 @@
         <v>5</v>
       </c>
       <c r="J743" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="K743" s="5">
         <v>24</v>
@@ -45862,104 +45855,59 @@
         <v>24</v>
       </c>
       <c r="N743" s="5">
-        <v>29500</v>
+        <v>35625</v>
       </c>
       <c r="O743" s="5">
-        <v>37000</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="744" spans="1:15">
       <c r="A744" s="5">
-        <v>1499</v>
+        <v>4102</v>
       </c>
       <c r="B744" s="5" t="s">
-        <v>1380</v>
+        <v>0</v>
       </c>
       <c r="C744" s="6">
-        <v>41800</v>
-      </c>
-      <c r="D744" s="5">
-        <v>9501</v>
+        <v>42966</v>
+      </c>
+      <c r="D744" s="5" t="s">
+        <v>1599</v>
       </c>
       <c r="E744" s="5" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="F744" s="5" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="G744" s="5" t="s">
-        <v>1599</v>
-      </c>
-      <c r="H744" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I744" s="5" t="s">
-        <v>5</v>
+        <v>1601</v>
+      </c>
+      <c r="H744" s="5">
+        <v>0</v>
+      </c>
+      <c r="I744" s="5">
+        <v>0</v>
       </c>
       <c r="J744" s="5" t="s">
-        <v>1386</v>
+        <v>4</v>
       </c>
       <c r="K744" s="5">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="L744" s="5"/>
       <c r="M744" s="5">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="N744" s="5">
-        <v>35625</v>
-      </c>
-      <c r="O744" s="5">
-        <v>43000</v>
-      </c>
-    </row>
-    <row r="745" spans="1:15">
-      <c r="A745" s="5">
-        <v>4102</v>
-      </c>
-      <c r="B745" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C745" s="6">
-        <v>42966</v>
-      </c>
-      <c r="D745" s="5" t="s">
-        <v>1600</v>
-      </c>
-      <c r="E745" s="5" t="s">
-        <v>1601</v>
-      </c>
-      <c r="F745" s="5" t="s">
-        <v>1601</v>
-      </c>
-      <c r="G745" s="5" t="s">
-        <v>1602</v>
-      </c>
-      <c r="H745" s="5">
-        <v>0</v>
-      </c>
-      <c r="I745" s="5">
-        <v>0</v>
-      </c>
-      <c r="J745" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K745" s="5">
-        <v>1</v>
-      </c>
-      <c r="L745" s="5"/>
-      <c r="M745" s="5">
-        <v>1</v>
-      </c>
-      <c r="N745" s="5">
-        <v>0</v>
-      </c>
-      <c r="O745" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="O744" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q745"/>
+  <autoFilter ref="A1:Q744"/>
   <conditionalFormatting sqref="F1">
-    <cfRule type="containsBlanks" dxfId="1" priority="21">
+    <cfRule type="containsBlanks" dxfId="0" priority="21">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45970,12 +45918,2378 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="14">
+        <v>41865</v>
+      </c>
+      <c r="B1" s="13">
+        <v>3443</v>
+      </c>
+      <c r="C1" s="13">
+        <v>3443</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="14">
+        <v>41872</v>
+      </c>
+      <c r="B2" s="13">
+        <v>4651</v>
+      </c>
+      <c r="C2" s="13">
+        <v>4651</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="14">
+        <v>41863</v>
+      </c>
+      <c r="B3" s="17">
+        <v>3409</v>
+      </c>
+      <c r="C3" s="17">
+        <v>3409</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="14">
+        <v>41880</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="14">
+        <v>41350</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1469</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1469</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="14">
+        <v>41450</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1557</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1557</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="14">
+        <v>42374</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="14">
+        <v>42600</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="14">
+        <v>42600</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="14">
+        <v>43102</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="14">
+        <v>41794</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="14">
+        <v>41429</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="14">
+        <v>41432</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="14">
+        <v>41432</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="14">
+        <v>41429</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="14">
+        <v>41429</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="14">
+        <v>41432</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="14">
+        <v>41432</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="14">
+        <v>41429</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="14">
+        <v>41432</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="14">
+        <v>41432</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="14">
+        <v>42551</v>
+      </c>
+      <c r="B22" s="13">
+        <v>64501</v>
+      </c>
+      <c r="C22" s="13">
+        <v>64501</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="14">
+        <v>42551</v>
+      </c>
+      <c r="B23" s="13">
+        <v>64502</v>
+      </c>
+      <c r="C23" s="13">
+        <v>64502</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="14">
+        <v>42551</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="14">
+        <v>42189</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="14">
+        <v>41950</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="14">
+        <v>41979</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="14">
+        <v>41803</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="14">
+        <v>41803</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="14">
+        <v>41746</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="14">
+        <v>41746</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="14">
+        <v>41746</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="14">
+        <v>41657</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="14">
+        <v>41657</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="14">
+        <v>41657</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="14">
+        <v>41688</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="14">
+        <v>41688</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="14">
+        <v>41781</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="14">
+        <v>41781</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="14">
+        <v>42150</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="14">
+        <v>42854</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="21">
+        <v>42075</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="14">
+        <v>41733</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="14">
+        <v>41768</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="14">
+        <v>41768</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="14">
+        <v>42436</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>716</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>716</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="14">
+        <v>42124</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="14">
+        <v>41466</v>
+      </c>
+      <c r="B48" s="13">
+        <v>1361</v>
+      </c>
+      <c r="C48" s="13">
+        <v>1361</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="14">
+        <v>41456</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="21">
+        <v>42006</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>738</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>738</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
+        <v>41743</v>
+      </c>
+      <c r="B51" s="1">
+        <v>3468</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3468</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
+        <v>41743</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1631</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1631</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
+        <v>41743</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1293</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1293</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="6">
+        <v>42596</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>748</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>748</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
+        <v>42643</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>762</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>762</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
+        <v>42643</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>767</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>767</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
+        <v>41686</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1274</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1274</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
+        <v>41686</v>
+      </c>
+      <c r="B58" s="1">
+        <v>963</v>
+      </c>
+      <c r="C58" s="1">
+        <v>963</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="6">
+        <v>41807</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
+        <v>41961</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
+        <v>41961</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
+        <v>41691</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1277</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1277</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
+        <v>41476</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1806</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1806</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
+        <v>41476</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1805</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1805</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
+        <v>42484</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1728</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1728</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
+        <v>42484</v>
+      </c>
+      <c r="B66" s="1">
+        <v>300</v>
+      </c>
+      <c r="C66" s="1">
+        <v>300</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
+        <v>41698</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1921</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1921</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2">
+        <v>41698</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1061</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1061</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
+        <v>41576</v>
+      </c>
+      <c r="B69" s="1">
+        <v>326</v>
+      </c>
+      <c r="C69" s="1">
+        <v>326</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
+        <v>41576</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="6">
+        <v>41707</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
+        <v>42069</v>
+      </c>
+      <c r="B72" s="1">
+        <v>33777</v>
+      </c>
+      <c r="C72" s="1">
+        <v>33777</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="6">
+        <v>41828</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
+        <v>42417</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
+        <v>42447</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
+        <v>42447</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
+        <v>42453</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
+        <v>42453</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
+        <v>42405</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
+        <v>42405</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
+        <v>42114</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
+        <v>41450</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
+        <v>38998</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
+        <v>42788</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
+        <v>41450</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="6">
+        <v>41432</v>
+      </c>
+      <c r="B86" s="5">
+        <v>41432</v>
+      </c>
+      <c r="C86" s="5">
+        <v>41432</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
+        <v>42387</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
+        <v>42706</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
+        <v>42706</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
+        <v>42706</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
+        <v>42191</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
+        <v>42056</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
+        <v>41865</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
+        <v>41627</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
+        <v>41778</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
+        <v>41477</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
+        <v>41542</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
+        <v>42455</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
+        <v>43222</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1297</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1297</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
+        <v>42593</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
+        <v>41971</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
+        <v>41971</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="2">
+        <v>42063</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="2">
+        <v>42642</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="2">
+        <v>42306</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="2">
+        <v>41577</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="2">
+        <v>41762</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="2">
+        <v>41465</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
+        <v>42466</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
+        <v>42466</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
+        <v>42131</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
+        <v>41647</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
+        <v>42600</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
+        <v>42690</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="6">
+        <v>42468</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="6">
+        <v>42983</v>
+      </c>
+      <c r="B116" s="1">
+        <v>11180201482</v>
+      </c>
+      <c r="C116" s="1">
+        <v>11180201482</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="2">
+        <v>43144</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="6">
+        <v>42775</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="2">
+        <v>42359</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="2">
+        <v>42725</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1550</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1550</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="2">
+        <v>42041</v>
+      </c>
+      <c r="B121" s="1">
+        <v>2063</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2063</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="2">
+        <v>42088</v>
+      </c>
+      <c r="B122" s="1">
+        <v>2261</v>
+      </c>
+      <c r="C122" s="1">
+        <v>2261</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
+        <v>42108</v>
+      </c>
+      <c r="B123" s="1">
+        <v>2191</v>
+      </c>
+      <c r="C123" s="1">
+        <v>2191</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="2">
+        <v>42102</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1681</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1681</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="2">
+        <v>42053</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="2">
+        <v>42740</v>
+      </c>
+      <c r="B126" s="1">
+        <v>12180200679</v>
+      </c>
+      <c r="C126" s="1">
+        <v>12180200679</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="2">
+        <v>43144</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="2">
+        <v>42318</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B129" s="24" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="2">
+        <v>42723</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="2">
+        <v>42468</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="2">
+        <v>42468</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="6">
+        <v>43000</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="6">
+        <v>43033</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="6">
+        <v>43102</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="2">
+        <v>42720</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="2">
+        <v>42357</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="2">
+        <v>42357</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="2">
+        <v>42357</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="2">
+        <v>42357</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="2">
+        <v>42357</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="2">
+        <v>42375</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="2">
+        <v>42375</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="2">
+        <v>42375</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
+        <v>42464</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="6">
+        <v>42027</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
+        <v>41697</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
+        <v>42034</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
+        <v>42034</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
+        <v>42470</v>
+      </c>
+      <c r="B150" s="1">
+        <v>385</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="6">
+        <v>42414</v>
+      </c>
+      <c r="B151" s="1">
+        <v>3361</v>
+      </c>
+      <c r="C151" s="1">
+        <v>385</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
+        <v>41641</v>
+      </c>
+      <c r="B152" s="5">
+        <v>2574</v>
+      </c>
+      <c r="C152" s="1">
+        <v>3361</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
+        <v>43073</v>
+      </c>
+      <c r="B153" s="5">
+        <v>4037</v>
+      </c>
+      <c r="C153" s="5">
+        <v>2574</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="6">
+        <v>42989</v>
+      </c>
+      <c r="B154" s="5">
+        <v>3130</v>
+      </c>
+      <c r="C154" s="5">
+        <v>4037</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="6">
+        <v>43143</v>
+      </c>
+      <c r="B155" s="5">
+        <v>10111</v>
+      </c>
+      <c r="C155" s="5">
+        <v>3130</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="6">
+        <v>43052</v>
+      </c>
+      <c r="B156" s="5">
+        <v>8137</v>
+      </c>
+      <c r="C156" s="5">
+        <v>10111</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="6">
+        <v>41865</v>
+      </c>
+      <c r="B157" s="5">
+        <v>8417</v>
+      </c>
+      <c r="C157" s="5">
+        <v>8137</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="6">
+        <v>41626</v>
+      </c>
+      <c r="B158" s="5">
+        <v>3834</v>
+      </c>
+      <c r="C158" s="5">
+        <v>8417</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="6">
+        <v>41661</v>
+      </c>
+      <c r="B159" s="5">
+        <v>4139</v>
+      </c>
+      <c r="C159" s="5">
+        <v>3834</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="6">
+        <v>43122</v>
+      </c>
+      <c r="B160" s="5">
+        <v>4456</v>
+      </c>
+      <c r="C160" s="5">
+        <v>4139</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="6">
+        <v>43154</v>
+      </c>
+      <c r="B161" s="5">
+        <v>1181</v>
+      </c>
+      <c r="C161" s="5">
+        <v>4456</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="6">
+        <v>43183</v>
+      </c>
+      <c r="B162" s="5">
+        <v>1103</v>
+      </c>
+      <c r="C162" s="5">
+        <v>1181</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="6">
+        <v>42857</v>
+      </c>
+      <c r="B163" s="5">
+        <v>8463</v>
+      </c>
+      <c r="C163" s="5">
+        <v>1103</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="6">
+        <v>42002</v>
+      </c>
+      <c r="B164" s="5">
+        <v>8990</v>
+      </c>
+      <c r="C164" s="5">
+        <v>8463</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="6">
+        <v>41669</v>
+      </c>
+      <c r="B165" s="5">
+        <v>8726</v>
+      </c>
+      <c r="C165" s="5">
+        <v>8990</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="6">
+        <v>41739</v>
+      </c>
+      <c r="B166" s="5">
+        <v>9501</v>
+      </c>
+      <c r="C166" s="5">
+        <v>8726</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="6">
+        <v>41765</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C167" s="5">
+        <v>9501</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="6">
+        <v>41800</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="6">
+        <v>42966</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -45987,6 +48301,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
